--- a/EwoQ/Content/formats/base completo.xlsx
+++ b/EwoQ/Content/formats/base completo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\HPC\Calidad\EwoQ\EwoQ\Content\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55704E7-75D0-4F37-BC06-2C732CC9B9E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F52D7-063C-4589-8981-8A986171F489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5G's" sheetId="27" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2) Preguntas 4M" sheetId="33" r:id="rId3"/>
     <sheet name="3) Ruta 4M´s" sheetId="34" r:id="rId4"/>
     <sheet name="4) Plan de Acción" sheetId="19" r:id="rId5"/>
-    <sheet name="5) 5 Zero Questions" sheetId="36" r:id="rId6"/>
+    <sheet name="5) Zero Questions" sheetId="36" r:id="rId6"/>
     <sheet name="Flujo" sheetId="31" state="hidden" r:id="rId7"/>
     <sheet name="Línea de Tiempo" sheetId="23" state="hidden" r:id="rId8"/>
     <sheet name="4M's" sheetId="13" state="hidden" r:id="rId9"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3) Ruta 4M´s'!$A$1:$L$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'4) Plan de Acción'!$A$2:$P$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'4M''s'!$A$1:$R$27,'4M''s'!$A$30:$R$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'5) 5 Zero Questions'!$B$3:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'5) Zero Questions'!$B$3:$H$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'5G''s'!$A$4:$R$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Línea de Tiempo'!$A$1:$FE$36</definedName>
     <definedName name="CRQS" localSheetId="1">'Lista desplegables'!#REF!</definedName>
@@ -14427,262 +14427,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="19" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -14694,200 +14466,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="28" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14901,164 +14496,14 @@
     <xf numFmtId="22" fontId="24" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15132,6 +14577,12 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15162,8 +14613,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15174,38 +14637,641 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="26" fillId="7" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="26" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="28" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="19" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -15296,72 +15362,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21537,6 +21537,11 @@
     <row r="68" spans="1:11" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A55:K65"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="A5:R5"/>
@@ -21545,11 +21550,6 @@
     <mergeCell ref="A8:K17"/>
     <mergeCell ref="A18:K19"/>
     <mergeCell ref="A20:K29"/>
-    <mergeCell ref="A31:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A55:K65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -53177,8 +53177,8 @@
   </sheetPr>
   <dimension ref="B1:S114"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="14.4"/>
@@ -53196,116 +53196,116 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1"/>
     <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="256"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="248" t="s">
+      <c r="B2" s="324"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="316" t="s">
         <v>3914</v>
       </c>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="241" t="s">
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="305" t="s">
         <v>3806</v>
       </c>
-      <c r="Q2" s="241"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="244"/>
+      <c r="Q2" s="305"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="312"/>
     </row>
     <row r="3" spans="2:19" ht="27.75" customHeight="1">
-      <c r="B3" s="258"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="242" t="s">
+      <c r="B3" s="326"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="306" t="s">
         <v>4055</v>
       </c>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="245"/>
+      <c r="Q3" s="306"/>
+      <c r="R3" s="306"/>
+      <c r="S3" s="313"/>
     </row>
     <row r="4" spans="2:19" ht="24.9" customHeight="1">
-      <c r="B4" s="258"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="243" t="s">
+      <c r="B4" s="326"/>
+      <c r="C4" s="327"/>
+      <c r="D4" s="311" t="s">
         <v>3915</v>
       </c>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243" t="s">
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="311" t="s">
         <v>4072</v>
       </c>
-      <c r="M4" s="243"/>
-      <c r="N4" s="243"/>
-      <c r="O4" s="243"/>
-      <c r="P4" s="243" t="s">
+      <c r="M4" s="311"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311" t="s">
         <v>4071</v>
       </c>
-      <c r="Q4" s="243"/>
-      <c r="R4" s="243"/>
-      <c r="S4" s="245"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="313"/>
     </row>
     <row r="5" spans="2:19" ht="24.9" customHeight="1">
-      <c r="B5" s="258"/>
-      <c r="C5" s="259"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="243"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="243"/>
-      <c r="N5" s="243"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="243"/>
-      <c r="R5" s="243"/>
-      <c r="S5" s="246"/>
+      <c r="B5" s="326"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="311"/>
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="311"/>
+      <c r="K5" s="311"/>
+      <c r="L5" s="311"/>
+      <c r="M5" s="311"/>
+      <c r="N5" s="311"/>
+      <c r="O5" s="311"/>
+      <c r="P5" s="311"/>
+      <c r="Q5" s="311"/>
+      <c r="R5" s="311"/>
+      <c r="S5" s="314"/>
     </row>
     <row r="6" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="215" t="s">
         <v>3819</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="177" t="s">
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="340"/>
+      <c r="G6" s="341"/>
+      <c r="H6" s="215" t="s">
         <v>4044</v>
       </c>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="161"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="372"/>
+      <c r="L6" s="372"/>
+      <c r="M6" s="372"/>
+      <c r="N6" s="372"/>
+      <c r="O6" s="373"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="47"/>
       <c r="S6" s="21"/>
@@ -53331,893 +53331,893 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="2:19" ht="33" customHeight="1">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="215" t="s">
         <v>3920</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="179"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="216"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="217"/>
     </row>
     <row r="9" spans="2:19" ht="33" customHeight="1">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="207" t="s">
         <v>3833</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="234" t="s">
+      <c r="C9" s="208"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="206" t="s">
         <v>4059</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="261" t="s">
+      <c r="I9" s="206"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="308"/>
+      <c r="L9" s="309"/>
+      <c r="M9" s="310"/>
+      <c r="N9" s="331" t="s">
         <v>3868</v>
       </c>
-      <c r="O9" s="262"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="262"/>
-      <c r="R9" s="262"/>
-      <c r="S9" s="263"/>
+      <c r="O9" s="332"/>
+      <c r="P9" s="332"/>
+      <c r="Q9" s="332"/>
+      <c r="R9" s="332"/>
+      <c r="S9" s="333"/>
     </row>
     <row r="10" spans="2:19" ht="33" customHeight="1">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="207" t="s">
         <v>3834</v>
       </c>
-      <c r="C10" s="213"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="239" t="s">
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="307"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="307"/>
+      <c r="H10" s="339" t="s">
         <v>3926</v>
       </c>
-      <c r="I10" s="239"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="217"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="264"/>
+      <c r="I10" s="339"/>
+      <c r="J10" s="339"/>
+      <c r="K10" s="308"/>
+      <c r="L10" s="309"/>
+      <c r="M10" s="310"/>
+      <c r="N10" s="308"/>
+      <c r="O10" s="309"/>
+      <c r="P10" s="309"/>
+      <c r="Q10" s="309"/>
+      <c r="R10" s="309"/>
+      <c r="S10" s="334"/>
     </row>
     <row r="11" spans="2:19" ht="33" customHeight="1">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="207" t="s">
         <v>3822</v>
       </c>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="239" t="s">
+      <c r="C11" s="208"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="307"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="307"/>
+      <c r="H11" s="339" t="s">
         <v>3925</v>
       </c>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="217"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="218"/>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="218"/>
-      <c r="S11" s="218"/>
+      <c r="I11" s="339"/>
+      <c r="J11" s="339"/>
+      <c r="K11" s="308"/>
+      <c r="L11" s="309"/>
+      <c r="M11" s="310"/>
+      <c r="N11" s="308"/>
+      <c r="O11" s="309"/>
+      <c r="P11" s="309"/>
+      <c r="Q11" s="309"/>
+      <c r="R11" s="309"/>
+      <c r="S11" s="309"/>
     </row>
     <row r="12" spans="2:19" ht="33" customHeight="1">
-      <c r="B12" s="237" t="s">
+      <c r="B12" s="328" t="s">
         <v>3887</v>
       </c>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="213" t="s">
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="330"/>
+      <c r="F12" s="330"/>
+      <c r="G12" s="330"/>
+      <c r="H12" s="208" t="s">
         <v>3888</v>
       </c>
-      <c r="I12" s="213"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="264"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="308"/>
+      <c r="L12" s="309"/>
+      <c r="M12" s="310"/>
+      <c r="N12" s="308"/>
+      <c r="O12" s="309"/>
+      <c r="P12" s="309"/>
+      <c r="Q12" s="309"/>
+      <c r="R12" s="309"/>
+      <c r="S12" s="334"/>
     </row>
     <row r="13" spans="2:19" ht="33" customHeight="1">
-      <c r="B13" s="237" t="s">
+      <c r="B13" s="328" t="s">
         <v>3831</v>
       </c>
-      <c r="C13" s="238"/>
-      <c r="D13" s="238"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="236"/>
-      <c r="G13" s="236"/>
-      <c r="H13" s="235" t="s">
+      <c r="C13" s="329"/>
+      <c r="D13" s="329"/>
+      <c r="E13" s="338"/>
+      <c r="F13" s="338"/>
+      <c r="G13" s="338"/>
+      <c r="H13" s="212" t="s">
         <v>3821</v>
       </c>
-      <c r="I13" s="235"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="217"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="231"/>
-      <c r="O13" s="232"/>
-      <c r="P13" s="232"/>
-      <c r="Q13" s="232"/>
-      <c r="R13" s="232"/>
-      <c r="S13" s="233"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="308"/>
+      <c r="L13" s="309"/>
+      <c r="M13" s="310"/>
+      <c r="N13" s="335"/>
+      <c r="O13" s="336"/>
+      <c r="P13" s="336"/>
+      <c r="Q13" s="336"/>
+      <c r="R13" s="336"/>
+      <c r="S13" s="337"/>
     </row>
     <row r="14" spans="2:19" ht="33" customHeight="1">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="234" t="s">
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="206" t="s">
         <v>3820</v>
       </c>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="217"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="388" t="s">
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="308"/>
+      <c r="L14" s="309"/>
+      <c r="M14" s="310"/>
+      <c r="N14" s="209" t="s">
         <v>3917</v>
       </c>
-      <c r="O14" s="389"/>
-      <c r="P14" s="390"/>
-      <c r="Q14" s="357"/>
-      <c r="R14" s="358"/>
-      <c r="S14" s="359"/>
+      <c r="O14" s="210"/>
+      <c r="P14" s="211"/>
+      <c r="Q14" s="172"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="174"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="207" t="s">
         <v>3916</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="235" t="s">
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="352"/>
+      <c r="F15" s="352"/>
+      <c r="G15" s="352"/>
+      <c r="H15" s="212" t="s">
         <v>4060</v>
       </c>
-      <c r="I15" s="235"/>
-      <c r="J15" s="235"/>
-      <c r="K15" s="217"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="223" t="s">
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="309"/>
+      <c r="M15" s="309"/>
+      <c r="N15" s="359" t="s">
         <v>3918</v>
       </c>
-      <c r="O15" s="224"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="360"/>
-      <c r="R15" s="361"/>
-      <c r="S15" s="362"/>
+      <c r="O15" s="360"/>
+      <c r="P15" s="361"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="177"/>
     </row>
     <row r="16" spans="2:19" ht="18">
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="215" t="s">
         <v>3919</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="178"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="179"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="216"/>
+      <c r="M16" s="216"/>
+      <c r="N16" s="216"/>
+      <c r="O16" s="216"/>
+      <c r="P16" s="216"/>
+      <c r="Q16" s="216"/>
+      <c r="R16" s="216"/>
+      <c r="S16" s="217"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="345" t="s">
         <v>4061</v>
       </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="210" t="s">
+      <c r="C17" s="346"/>
+      <c r="D17" s="346"/>
+      <c r="E17" s="346"/>
+      <c r="F17" s="346"/>
+      <c r="G17" s="347"/>
+      <c r="H17" s="350" t="s">
         <v>3927</v>
       </c>
-      <c r="I17" s="211"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="211"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="211"/>
-      <c r="Q17" s="211"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="226"/>
+      <c r="I17" s="351"/>
+      <c r="J17" s="351"/>
+      <c r="K17" s="351"/>
+      <c r="L17" s="351"/>
+      <c r="M17" s="351"/>
+      <c r="N17" s="351"/>
+      <c r="O17" s="351"/>
+      <c r="P17" s="351"/>
+      <c r="Q17" s="351"/>
+      <c r="R17" s="351"/>
+      <c r="S17" s="362"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="215" t="s">
+      <c r="B18" s="355" t="s">
         <v>3929</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="377"/>
-      <c r="H18" s="193" t="s">
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="349" t="s">
         <v>3838</v>
       </c>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="222"/>
-      <c r="L18" s="222"/>
-      <c r="M18" s="222"/>
-      <c r="N18" s="193" t="s">
+      <c r="I18" s="349"/>
+      <c r="J18" s="349"/>
+      <c r="K18" s="358"/>
+      <c r="L18" s="358"/>
+      <c r="M18" s="358"/>
+      <c r="N18" s="349" t="s">
         <v>3839</v>
       </c>
-      <c r="O18" s="193"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="220"/>
-      <c r="S18" s="221"/>
+      <c r="O18" s="349"/>
+      <c r="P18" s="349"/>
+      <c r="Q18" s="356"/>
+      <c r="R18" s="356"/>
+      <c r="S18" s="357"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="391" t="s">
+      <c r="B19" s="213" t="s">
         <v>3930</v>
       </c>
-      <c r="C19" s="392"/>
-      <c r="D19" s="392"/>
-      <c r="E19" s="378"/>
-      <c r="F19" s="379"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="191" t="s">
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="367" t="s">
         <v>3921</v>
       </c>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191" t="s">
+      <c r="I19" s="367"/>
+      <c r="J19" s="367" t="s">
         <v>3924</v>
       </c>
-      <c r="K19" s="191"/>
-      <c r="L19" s="191" t="s">
+      <c r="K19" s="367"/>
+      <c r="L19" s="367" t="s">
         <v>3923</v>
       </c>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191" t="s">
+      <c r="M19" s="367"/>
+      <c r="N19" s="367" t="s">
         <v>3922</v>
       </c>
-      <c r="O19" s="191"/>
-      <c r="P19" s="197" t="s">
+      <c r="O19" s="367"/>
+      <c r="P19" s="353" t="s">
         <v>3928</v>
       </c>
-      <c r="Q19" s="197"/>
-      <c r="R19" s="197" t="s">
+      <c r="Q19" s="353"/>
+      <c r="R19" s="353" t="s">
         <v>3941</v>
       </c>
-      <c r="S19" s="214"/>
+      <c r="S19" s="354"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="391"/>
-      <c r="C20" s="392"/>
-      <c r="D20" s="392"/>
-      <c r="E20" s="381"/>
-      <c r="F20" s="382"/>
-      <c r="G20" s="383"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="190"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="195">
+      <c r="B20" s="213"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="366"/>
+      <c r="I20" s="366"/>
+      <c r="J20" s="366"/>
+      <c r="K20" s="366"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="352"/>
+      <c r="O20" s="352"/>
+      <c r="P20" s="366"/>
+      <c r="Q20" s="366"/>
+      <c r="R20" s="370">
         <v>0</v>
       </c>
-      <c r="S20" s="196"/>
+      <c r="S20" s="371"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="391"/>
-      <c r="C21" s="392"/>
-      <c r="D21" s="392"/>
-      <c r="E21" s="384"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="386"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="194"/>
-      <c r="O21" s="194"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="195"/>
-      <c r="S21" s="196"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="366"/>
+      <c r="I21" s="366"/>
+      <c r="J21" s="366"/>
+      <c r="K21" s="366"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="352"/>
+      <c r="O21" s="352"/>
+      <c r="P21" s="366"/>
+      <c r="Q21" s="366"/>
+      <c r="R21" s="370"/>
+      <c r="S21" s="371"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="348" t="s">
         <v>3931</v>
       </c>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="387" t="s">
+      <c r="C22" s="349"/>
+      <c r="D22" s="349"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="205" t="s">
         <v>4046</v>
       </c>
-      <c r="I22" s="376"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="194"/>
-      <c r="M22" s="194"/>
-      <c r="N22" s="193" t="s">
+      <c r="I22" s="191"/>
+      <c r="J22" s="352"/>
+      <c r="K22" s="352"/>
+      <c r="L22" s="352"/>
+      <c r="M22" s="352"/>
+      <c r="N22" s="349" t="s">
         <v>4045</v>
       </c>
-      <c r="O22" s="193"/>
-      <c r="P22" s="372"/>
-      <c r="Q22" s="373"/>
-      <c r="R22" s="373"/>
-      <c r="S22" s="374"/>
+      <c r="O22" s="349"/>
+      <c r="P22" s="187"/>
+      <c r="Q22" s="188"/>
+      <c r="R22" s="188"/>
+      <c r="S22" s="189"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="375" t="s">
+      <c r="B23" s="190" t="s">
         <v>3932</v>
       </c>
-      <c r="C23" s="376"/>
-      <c r="D23" s="376"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="168" t="s">
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="381" t="s">
         <v>4073</v>
       </c>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="169"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="170"/>
+      <c r="I23" s="382"/>
+      <c r="J23" s="382"/>
+      <c r="K23" s="382"/>
+      <c r="L23" s="382"/>
+      <c r="M23" s="382"/>
+      <c r="N23" s="382"/>
+      <c r="O23" s="382"/>
+      <c r="P23" s="382"/>
+      <c r="Q23" s="382"/>
+      <c r="R23" s="382"/>
+      <c r="S23" s="383"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="363" t="s">
+      <c r="B24" s="178" t="s">
         <v>4076</v>
       </c>
-      <c r="C24" s="364"/>
-      <c r="D24" s="364"/>
-      <c r="E24" s="364"/>
-      <c r="F24" s="364"/>
-      <c r="G24" s="364"/>
-      <c r="H24" s="364"/>
-      <c r="I24" s="364"/>
-      <c r="J24" s="364"/>
-      <c r="K24" s="364"/>
-      <c r="L24" s="364"/>
-      <c r="M24" s="364"/>
-      <c r="N24" s="364"/>
-      <c r="O24" s="364"/>
-      <c r="P24" s="364"/>
-      <c r="Q24" s="364"/>
-      <c r="R24" s="364"/>
-      <c r="S24" s="365"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="179"/>
+      <c r="O24" s="179"/>
+      <c r="P24" s="179"/>
+      <c r="Q24" s="179"/>
+      <c r="R24" s="179"/>
+      <c r="S24" s="180"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="366"/>
-      <c r="C25" s="367"/>
-      <c r="D25" s="367"/>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
-      <c r="K25" s="367"/>
-      <c r="L25" s="367"/>
-      <c r="M25" s="367"/>
-      <c r="N25" s="367"/>
-      <c r="O25" s="367"/>
-      <c r="P25" s="367"/>
-      <c r="Q25" s="367"/>
-      <c r="R25" s="367"/>
-      <c r="S25" s="368"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="183"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="366"/>
-      <c r="C26" s="367"/>
-      <c r="D26" s="367"/>
-      <c r="E26" s="367"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
-      <c r="I26" s="367"/>
-      <c r="J26" s="367"/>
-      <c r="K26" s="367"/>
-      <c r="L26" s="367"/>
-      <c r="M26" s="367"/>
-      <c r="N26" s="367"/>
-      <c r="O26" s="367"/>
-      <c r="P26" s="367"/>
-      <c r="Q26" s="367"/>
-      <c r="R26" s="367"/>
-      <c r="S26" s="368"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="183"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="369"/>
-      <c r="C27" s="370"/>
-      <c r="D27" s="370"/>
-      <c r="E27" s="370"/>
-      <c r="F27" s="370"/>
-      <c r="G27" s="370"/>
-      <c r="H27" s="370"/>
-      <c r="I27" s="370"/>
-      <c r="J27" s="370"/>
-      <c r="K27" s="370"/>
-      <c r="L27" s="370"/>
-      <c r="M27" s="370"/>
-      <c r="N27" s="370"/>
-      <c r="O27" s="370"/>
-      <c r="P27" s="370"/>
-      <c r="Q27" s="370"/>
-      <c r="R27" s="370"/>
-      <c r="S27" s="371"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="185"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="185"/>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="185"/>
+      <c r="S27" s="186"/>
     </row>
     <row r="28" spans="2:19" ht="18">
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="215" t="s">
         <v>3933</v>
       </c>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="178"/>
-      <c r="N28" s="178"/>
-      <c r="O28" s="178"/>
-      <c r="P28" s="178"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="179"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="216"/>
+      <c r="N28" s="216"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="216"/>
+      <c r="Q28" s="216"/>
+      <c r="R28" s="216"/>
+      <c r="S28" s="217"/>
     </row>
     <row r="29" spans="2:19">
       <c r="B29" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="216" t="s">
+      <c r="C29" s="167" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216" t="s">
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167" t="s">
         <v>210</v>
       </c>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="353" t="s">
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="L29" s="354"/>
-      <c r="M29" s="354"/>
-      <c r="N29" s="355"/>
-      <c r="O29" s="216" t="s">
+      <c r="L29" s="169"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="167" t="s">
         <v>3934</v>
       </c>
-      <c r="P29" s="216"/>
-      <c r="Q29" s="216"/>
-      <c r="R29" s="216"/>
-      <c r="S29" s="356"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="171"/>
     </row>
     <row r="30" spans="2:19">
       <c r="B30" s="11">
         <v>1</v>
       </c>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="228"/>
-      <c r="L30" s="229"/>
-      <c r="M30" s="229"/>
-      <c r="N30" s="230"/>
-      <c r="O30" s="198"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="199"/>
-      <c r="R30" s="199"/>
-      <c r="S30" s="200"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="156"/>
     </row>
     <row r="31" spans="2:19">
       <c r="B31" s="11">
         <v>2</v>
       </c>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="228"/>
-      <c r="L31" s="229"/>
-      <c r="M31" s="229"/>
-      <c r="N31" s="230"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="199"/>
-      <c r="R31" s="199"/>
-      <c r="S31" s="200"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="156"/>
     </row>
     <row r="32" spans="2:19">
       <c r="B32" s="11">
         <v>3</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="228"/>
-      <c r="L32" s="229"/>
-      <c r="M32" s="229"/>
-      <c r="N32" s="230"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="199"/>
-      <c r="R32" s="199"/>
-      <c r="S32" s="200"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="156"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="11">
         <v>4</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="199"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="228"/>
-      <c r="L33" s="229"/>
-      <c r="M33" s="229"/>
-      <c r="N33" s="230"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="199"/>
-      <c r="R33" s="199"/>
-      <c r="S33" s="200"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="151"/>
+      <c r="S33" s="156"/>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="11">
         <v>5</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="228"/>
-      <c r="L34" s="229"/>
-      <c r="M34" s="229"/>
-      <c r="N34" s="230"/>
-      <c r="O34" s="198"/>
-      <c r="P34" s="199"/>
-      <c r="Q34" s="199"/>
-      <c r="R34" s="199"/>
-      <c r="S34" s="200"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="151"/>
+      <c r="S34" s="156"/>
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="11">
         <v>6</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="228"/>
-      <c r="L35" s="229"/>
-      <c r="M35" s="229"/>
-      <c r="N35" s="230"/>
-      <c r="O35" s="198"/>
-      <c r="P35" s="199"/>
-      <c r="Q35" s="199"/>
-      <c r="R35" s="199"/>
-      <c r="S35" s="200"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="151"/>
+      <c r="S35" s="156"/>
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="11">
         <v>7</v>
       </c>
-      <c r="C36" s="203"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="228"/>
-      <c r="L36" s="229"/>
-      <c r="M36" s="229"/>
-      <c r="N36" s="230"/>
-      <c r="O36" s="285"/>
-      <c r="P36" s="286"/>
-      <c r="Q36" s="286"/>
-      <c r="R36" s="286"/>
-      <c r="S36" s="287"/>
+      <c r="C36" s="342"/>
+      <c r="D36" s="343"/>
+      <c r="E36" s="343"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="282"/>
+      <c r="H36" s="288"/>
+      <c r="I36" s="288"/>
+      <c r="J36" s="283"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="279"/>
+      <c r="P36" s="280"/>
+      <c r="Q36" s="280"/>
+      <c r="R36" s="280"/>
+      <c r="S36" s="281"/>
     </row>
     <row r="37" spans="2:19" ht="24.9" customHeight="1">
-      <c r="B37" s="177" t="s">
+      <c r="B37" s="215" t="s">
         <v>3944</v>
       </c>
-      <c r="C37" s="178"/>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="178"/>
-      <c r="K37" s="178"/>
-      <c r="L37" s="178"/>
-      <c r="M37" s="178"/>
-      <c r="N37" s="178"/>
-      <c r="O37" s="178"/>
-      <c r="P37" s="178"/>
-      <c r="Q37" s="178"/>
-      <c r="R37" s="178"/>
-      <c r="S37" s="179"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
+      <c r="O37" s="216"/>
+      <c r="P37" s="216"/>
+      <c r="Q37" s="216"/>
+      <c r="R37" s="216"/>
+      <c r="S37" s="217"/>
     </row>
     <row r="38" spans="2:19" ht="24.9" customHeight="1">
       <c r="B38" s="22" t="s">
         <v>4082</v>
       </c>
-      <c r="C38" s="227" t="s">
+      <c r="C38" s="282" t="s">
         <v>4077</v>
       </c>
-      <c r="D38" s="159"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="288"/>
-      <c r="G38" s="227" t="s">
+      <c r="D38" s="283"/>
+      <c r="E38" s="284"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="282" t="s">
         <v>4078</v>
       </c>
-      <c r="H38" s="159"/>
-      <c r="I38" s="271"/>
-      <c r="J38" s="288"/>
-      <c r="K38" s="289" t="s">
+      <c r="H38" s="283"/>
+      <c r="I38" s="284"/>
+      <c r="J38" s="285"/>
+      <c r="K38" s="192" t="s">
         <v>4079</v>
       </c>
-      <c r="L38" s="290"/>
-      <c r="M38" s="291"/>
-      <c r="N38" s="292"/>
-      <c r="O38" s="227" t="s">
+      <c r="L38" s="193"/>
+      <c r="M38" s="286"/>
+      <c r="N38" s="287"/>
+      <c r="O38" s="282" t="s">
         <v>4080</v>
       </c>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="159"/>
-      <c r="R38" s="271"/>
-      <c r="S38" s="272"/>
+      <c r="P38" s="288"/>
+      <c r="Q38" s="283"/>
+      <c r="R38" s="284"/>
+      <c r="S38" s="289"/>
     </row>
     <row r="39" spans="2:19" ht="32.25" customHeight="1">
       <c r="B39" s="23"/>
-      <c r="C39" s="227" t="s">
+      <c r="C39" s="282" t="s">
         <v>4081</v>
       </c>
-      <c r="D39" s="159"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="288"/>
-      <c r="G39" s="227" t="s">
+      <c r="D39" s="283"/>
+      <c r="E39" s="284"/>
+      <c r="F39" s="285"/>
+      <c r="G39" s="282" t="s">
         <v>4081</v>
       </c>
-      <c r="H39" s="159"/>
-      <c r="I39" s="271"/>
-      <c r="J39" s="288"/>
-      <c r="K39" s="227" t="s">
+      <c r="H39" s="283"/>
+      <c r="I39" s="284"/>
+      <c r="J39" s="285"/>
+      <c r="K39" s="282" t="s">
         <v>4081</v>
       </c>
-      <c r="L39" s="159"/>
-      <c r="M39" s="293"/>
-      <c r="N39" s="294"/>
-      <c r="O39" s="227" t="s">
+      <c r="L39" s="283"/>
+      <c r="M39" s="290"/>
+      <c r="N39" s="291"/>
+      <c r="O39" s="282" t="s">
         <v>4081</v>
       </c>
-      <c r="P39" s="158"/>
-      <c r="Q39" s="158"/>
-      <c r="R39" s="271"/>
-      <c r="S39" s="272"/>
+      <c r="P39" s="288"/>
+      <c r="Q39" s="288"/>
+      <c r="R39" s="284"/>
+      <c r="S39" s="289"/>
     </row>
     <row r="40" spans="2:19" ht="33" customHeight="1">
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="215" t="s">
         <v>3869</v>
       </c>
-      <c r="C40" s="178"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="178"/>
-      <c r="L40" s="178"/>
-      <c r="M40" s="178"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
-      <c r="S40" s="179"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="216"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="216"/>
+      <c r="M40" s="216"/>
+      <c r="N40" s="216"/>
+      <c r="O40" s="216"/>
+      <c r="P40" s="216"/>
+      <c r="Q40" s="216"/>
+      <c r="R40" s="216"/>
+      <c r="S40" s="217"/>
     </row>
     <row r="41" spans="2:19" ht="33" customHeight="1">
-      <c r="B41" s="282" t="s">
+      <c r="B41" s="276" t="s">
         <v>3875</v>
       </c>
-      <c r="C41" s="283"/>
-      <c r="D41" s="283"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="283"/>
-      <c r="G41" s="283"/>
-      <c r="H41" s="283"/>
-      <c r="I41" s="283"/>
-      <c r="J41" s="283"/>
-      <c r="K41" s="283"/>
-      <c r="L41" s="283"/>
-      <c r="M41" s="283"/>
-      <c r="N41" s="283"/>
-      <c r="O41" s="283"/>
-      <c r="P41" s="283"/>
-      <c r="Q41" s="283"/>
-      <c r="R41" s="283"/>
-      <c r="S41" s="284"/>
+      <c r="C41" s="277"/>
+      <c r="D41" s="277"/>
+      <c r="E41" s="277"/>
+      <c r="F41" s="277"/>
+      <c r="G41" s="277"/>
+      <c r="H41" s="277"/>
+      <c r="I41" s="277"/>
+      <c r="J41" s="277"/>
+      <c r="K41" s="277"/>
+      <c r="L41" s="277"/>
+      <c r="M41" s="277"/>
+      <c r="N41" s="277"/>
+      <c r="O41" s="277"/>
+      <c r="P41" s="277"/>
+      <c r="Q41" s="277"/>
+      <c r="R41" s="277"/>
+      <c r="S41" s="278"/>
     </row>
     <row r="42" spans="2:19" ht="33" customHeight="1">
-      <c r="B42" s="266" t="s">
+      <c r="B42" s="293" t="s">
         <v>4056</v>
       </c>
-      <c r="C42" s="267"/>
-      <c r="D42" s="267"/>
-      <c r="E42" s="267"/>
-      <c r="F42" s="267"/>
-      <c r="G42" s="267"/>
-      <c r="H42" s="267"/>
-      <c r="I42" s="267"/>
-      <c r="J42" s="267"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="267"/>
-      <c r="M42" s="267"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="267"/>
-      <c r="P42" s="267"/>
-      <c r="Q42" s="267"/>
-      <c r="R42" s="267"/>
-      <c r="S42" s="268"/>
+      <c r="C42" s="294"/>
+      <c r="D42" s="294"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="294"/>
+      <c r="K42" s="294"/>
+      <c r="L42" s="294"/>
+      <c r="M42" s="294"/>
+      <c r="N42" s="294"/>
+      <c r="O42" s="294"/>
+      <c r="P42" s="294"/>
+      <c r="Q42" s="294"/>
+      <c r="R42" s="294"/>
+      <c r="S42" s="295"/>
     </row>
     <row r="43" spans="2:19" ht="33" customHeight="1">
       <c r="B43" s="48"/>
-      <c r="C43" s="265" t="s">
+      <c r="C43" s="292" t="s">
         <v>3870</v>
       </c>
-      <c r="D43" s="265"/>
-      <c r="G43" s="269" t="s">
+      <c r="D43" s="292"/>
+      <c r="G43" s="165" t="s">
         <v>3910</v>
       </c>
-      <c r="H43" s="270"/>
-      <c r="I43" s="270"/>
-      <c r="J43" s="270"/>
-      <c r="K43" s="270"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
       <c r="L43" s="136"/>
-      <c r="O43" s="273" t="s">
+      <c r="O43" s="296" t="s">
         <v>3940</v>
       </c>
-      <c r="P43" s="274"/>
-      <c r="Q43" s="274"/>
-      <c r="R43" s="275"/>
+      <c r="P43" s="297"/>
+      <c r="Q43" s="297"/>
+      <c r="R43" s="298"/>
       <c r="S43" s="49"/>
     </row>
     <row r="44" spans="2:19" ht="33" customHeight="1">
       <c r="B44" s="48"/>
-      <c r="C44" s="265" t="s">
+      <c r="C44" s="292" t="s">
         <v>3871</v>
       </c>
-      <c r="D44" s="265"/>
-      <c r="G44" s="269" t="s">
+      <c r="D44" s="292"/>
+      <c r="G44" s="165" t="s">
         <v>3909</v>
       </c>
-      <c r="H44" s="270"/>
-      <c r="I44" s="270"/>
-      <c r="J44" s="270"/>
-      <c r="K44" s="270"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
       <c r="L44" s="137"/>
-      <c r="O44" s="276"/>
-      <c r="P44" s="277"/>
-      <c r="Q44" s="277"/>
-      <c r="R44" s="278"/>
+      <c r="O44" s="299"/>
+      <c r="P44" s="300"/>
+      <c r="Q44" s="300"/>
+      <c r="R44" s="301"/>
       <c r="S44" s="49"/>
     </row>
     <row r="45" spans="2:19" ht="33" customHeight="1">
       <c r="B45" s="48"/>
-      <c r="C45" s="265" t="s">
+      <c r="C45" s="292" t="s">
         <v>3872</v>
       </c>
-      <c r="D45" s="265"/>
-      <c r="G45" s="269" t="s">
+      <c r="D45" s="292"/>
+      <c r="G45" s="165" t="s">
         <v>3908</v>
       </c>
-      <c r="H45" s="270"/>
-      <c r="I45" s="270"/>
-      <c r="J45" s="270"/>
-      <c r="K45" s="270"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
       <c r="L45" s="137"/>
-      <c r="O45" s="279"/>
-      <c r="P45" s="280"/>
-      <c r="Q45" s="280"/>
-      <c r="R45" s="281"/>
+      <c r="O45" s="302"/>
+      <c r="P45" s="303"/>
+      <c r="Q45" s="303"/>
+      <c r="R45" s="304"/>
       <c r="S45" s="49"/>
     </row>
     <row r="46" spans="2:19" ht="9.9" customHeight="1" thickBot="1">
@@ -54241,55 +54241,55 @@
       <c r="S46" s="56"/>
     </row>
     <row r="47" spans="2:19" ht="33" customHeight="1">
-      <c r="B47" s="187" t="s">
+      <c r="B47" s="363" t="s">
         <v>3935</v>
       </c>
-      <c r="C47" s="188"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="188"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="188"/>
-      <c r="I47" s="188"/>
-      <c r="J47" s="188"/>
-      <c r="K47" s="188"/>
-      <c r="L47" s="188"/>
-      <c r="M47" s="188"/>
-      <c r="N47" s="188"/>
-      <c r="O47" s="188"/>
-      <c r="P47" s="188"/>
-      <c r="Q47" s="188"/>
-      <c r="R47" s="188"/>
-      <c r="S47" s="189"/>
+      <c r="C47" s="364"/>
+      <c r="D47" s="364"/>
+      <c r="E47" s="364"/>
+      <c r="F47" s="364"/>
+      <c r="G47" s="364"/>
+      <c r="H47" s="364"/>
+      <c r="I47" s="364"/>
+      <c r="J47" s="364"/>
+      <c r="K47" s="364"/>
+      <c r="L47" s="364"/>
+      <c r="M47" s="364"/>
+      <c r="N47" s="364"/>
+      <c r="O47" s="364"/>
+      <c r="P47" s="364"/>
+      <c r="Q47" s="364"/>
+      <c r="R47" s="364"/>
+      <c r="S47" s="365"/>
     </row>
     <row r="48" spans="2:19" ht="33" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="296" t="s">
+      <c r="C48" s="161" t="s">
         <v>3936</v>
       </c>
-      <c r="D48" s="297"/>
-      <c r="E48" s="297"/>
-      <c r="F48" s="297"/>
-      <c r="G48" s="296" t="s">
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="161" t="s">
         <v>3937</v>
       </c>
-      <c r="H48" s="297"/>
-      <c r="I48" s="297"/>
-      <c r="J48" s="298"/>
-      <c r="K48" s="299" t="s">
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="163"/>
+      <c r="K48" s="164" t="s">
         <v>3938</v>
       </c>
-      <c r="L48" s="297"/>
-      <c r="M48" s="297"/>
-      <c r="N48" s="297"/>
-      <c r="O48" s="296" t="s">
+      <c r="L48" s="162"/>
+      <c r="M48" s="162"/>
+      <c r="N48" s="162"/>
+      <c r="O48" s="161" t="s">
         <v>3907</v>
       </c>
-      <c r="P48" s="297"/>
-      <c r="Q48" s="297"/>
-      <c r="R48" s="297"/>
+      <c r="P48" s="162"/>
+      <c r="Q48" s="162"/>
+      <c r="R48" s="162"/>
       <c r="S48" s="18" t="s">
         <v>3873</v>
       </c>
@@ -54298,184 +54298,184 @@
       <c r="B49" s="17">
         <v>1</v>
       </c>
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="184"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="183"/>
-      <c r="L49" s="180"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="180"/>
-      <c r="O49" s="180"/>
-      <c r="P49" s="180"/>
-      <c r="Q49" s="180"/>
-      <c r="R49" s="180"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="160"/>
+      <c r="O49" s="160"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="160"/>
       <c r="S49" s="19"/>
     </row>
     <row r="50" spans="2:19" ht="33" customHeight="1">
       <c r="B50" s="17">
         <v>2</v>
       </c>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="182"/>
-      <c r="K50" s="183"/>
-      <c r="L50" s="180"/>
-      <c r="M50" s="180"/>
-      <c r="N50" s="180"/>
-      <c r="O50" s="184"/>
-      <c r="P50" s="184"/>
-      <c r="Q50" s="184"/>
-      <c r="R50" s="184"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="368"/>
+      <c r="H50" s="368"/>
+      <c r="I50" s="368"/>
+      <c r="J50" s="369"/>
+      <c r="K50" s="159"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="157"/>
+      <c r="P50" s="157"/>
+      <c r="Q50" s="157"/>
+      <c r="R50" s="157"/>
       <c r="S50" s="19"/>
     </row>
     <row r="51" spans="2:19" ht="33" customHeight="1">
       <c r="B51" s="17">
         <v>3</v>
       </c>
-      <c r="C51" s="180"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="181"/>
-      <c r="H51" s="181"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="182"/>
-      <c r="K51" s="183"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="180"/>
-      <c r="N51" s="180"/>
-      <c r="O51" s="184"/>
-      <c r="P51" s="184"/>
-      <c r="Q51" s="184"/>
-      <c r="R51" s="184"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="368"/>
+      <c r="H51" s="368"/>
+      <c r="I51" s="368"/>
+      <c r="J51" s="369"/>
+      <c r="K51" s="159"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="160"/>
+      <c r="N51" s="160"/>
+      <c r="O51" s="157"/>
+      <c r="P51" s="157"/>
+      <c r="Q51" s="157"/>
+      <c r="R51" s="157"/>
       <c r="S51" s="19"/>
     </row>
     <row r="52" spans="2:19" ht="33" customHeight="1">
       <c r="B52" s="17">
         <v>4</v>
       </c>
-      <c r="C52" s="180"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="180"/>
-      <c r="J52" s="185"/>
-      <c r="K52" s="183"/>
-      <c r="L52" s="180"/>
-      <c r="M52" s="180"/>
-      <c r="N52" s="180"/>
-      <c r="O52" s="184"/>
-      <c r="P52" s="184"/>
-      <c r="Q52" s="184"/>
-      <c r="R52" s="184"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="218"/>
+      <c r="K52" s="159"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="160"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="157"/>
+      <c r="P52" s="157"/>
+      <c r="Q52" s="157"/>
+      <c r="R52" s="157"/>
       <c r="S52" s="19"/>
     </row>
     <row r="53" spans="2:19" ht="33" customHeight="1">
       <c r="B53" s="17">
         <v>5</v>
       </c>
-      <c r="C53" s="180"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="180"/>
-      <c r="F53" s="180"/>
-      <c r="G53" s="184"/>
-      <c r="H53" s="184"/>
-      <c r="I53" s="184"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="183"/>
-      <c r="L53" s="180"/>
-      <c r="M53" s="180"/>
-      <c r="N53" s="180"/>
-      <c r="O53" s="184"/>
-      <c r="P53" s="184"/>
-      <c r="Q53" s="184"/>
-      <c r="R53" s="184"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
+      <c r="K53" s="159"/>
+      <c r="L53" s="160"/>
+      <c r="M53" s="160"/>
+      <c r="N53" s="160"/>
+      <c r="O53" s="157"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="157"/>
+      <c r="R53" s="157"/>
       <c r="S53" s="19"/>
     </row>
     <row r="54" spans="2:19" ht="33" customHeight="1">
       <c r="B54" s="17">
         <v>6</v>
       </c>
-      <c r="C54" s="180"/>
-      <c r="D54" s="180"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="180"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="180"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="185"/>
-      <c r="K54" s="183"/>
-      <c r="L54" s="180"/>
-      <c r="M54" s="180"/>
-      <c r="N54" s="180"/>
-      <c r="O54" s="180"/>
-      <c r="P54" s="180"/>
-      <c r="Q54" s="180"/>
-      <c r="R54" s="180"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="218"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="160"/>
+      <c r="P54" s="160"/>
+      <c r="Q54" s="160"/>
+      <c r="R54" s="160"/>
       <c r="S54" s="19"/>
     </row>
     <row r="55" spans="2:19" ht="33" customHeight="1">
-      <c r="B55" s="171" t="s">
+      <c r="B55" s="384" t="s">
         <v>3906</v>
       </c>
-      <c r="C55" s="172"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="172"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="172"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="172"/>
-      <c r="K55" s="172"/>
-      <c r="L55" s="172"/>
-      <c r="M55" s="172"/>
-      <c r="N55" s="172"/>
-      <c r="O55" s="172"/>
-      <c r="P55" s="172"/>
-      <c r="Q55" s="172"/>
-      <c r="R55" s="172"/>
-      <c r="S55" s="173"/>
+      <c r="C55" s="385"/>
+      <c r="D55" s="385"/>
+      <c r="E55" s="385"/>
+      <c r="F55" s="385"/>
+      <c r="G55" s="385"/>
+      <c r="H55" s="385"/>
+      <c r="I55" s="385"/>
+      <c r="J55" s="385"/>
+      <c r="K55" s="385"/>
+      <c r="L55" s="385"/>
+      <c r="M55" s="385"/>
+      <c r="N55" s="385"/>
+      <c r="O55" s="385"/>
+      <c r="P55" s="385"/>
+      <c r="Q55" s="385"/>
+      <c r="R55" s="385"/>
+      <c r="S55" s="386"/>
     </row>
     <row r="56" spans="2:19" ht="33" customHeight="1">
       <c r="B56" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="296" t="s">
+      <c r="C56" s="161" t="s">
         <v>3936</v>
       </c>
-      <c r="D56" s="297"/>
-      <c r="E56" s="297"/>
-      <c r="F56" s="297"/>
-      <c r="G56" s="296" t="s">
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="161" t="s">
         <v>3937</v>
       </c>
-      <c r="H56" s="297"/>
-      <c r="I56" s="297"/>
-      <c r="J56" s="298"/>
-      <c r="K56" s="299" t="s">
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="164" t="s">
         <v>3938</v>
       </c>
-      <c r="L56" s="297"/>
-      <c r="M56" s="297"/>
-      <c r="N56" s="297"/>
-      <c r="O56" s="296" t="s">
+      <c r="L56" s="162"/>
+      <c r="M56" s="162"/>
+      <c r="N56" s="162"/>
+      <c r="O56" s="161" t="s">
         <v>3907</v>
       </c>
-      <c r="P56" s="297"/>
-      <c r="Q56" s="297"/>
-      <c r="R56" s="297"/>
+      <c r="P56" s="162"/>
+      <c r="Q56" s="162"/>
+      <c r="R56" s="162"/>
       <c r="S56" s="18" t="s">
         <v>3873</v>
       </c>
@@ -54484,140 +54484,140 @@
       <c r="B57" s="17">
         <v>1</v>
       </c>
-      <c r="C57" s="300"/>
-      <c r="D57" s="301"/>
-      <c r="E57" s="301"/>
-      <c r="F57" s="302"/>
-      <c r="G57" s="395"/>
-      <c r="H57" s="396"/>
-      <c r="I57" s="396"/>
-      <c r="J57" s="397"/>
-      <c r="K57" s="393"/>
-      <c r="L57" s="301"/>
-      <c r="M57" s="301"/>
-      <c r="N57" s="302"/>
-      <c r="O57" s="300"/>
-      <c r="P57" s="301"/>
-      <c r="Q57" s="301"/>
-      <c r="R57" s="302"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="149"/>
+      <c r="K57" s="142"/>
+      <c r="L57" s="143"/>
+      <c r="M57" s="143"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="143"/>
+      <c r="Q57" s="143"/>
+      <c r="R57" s="144"/>
       <c r="S57" s="19"/>
     </row>
     <row r="58" spans="2:19" ht="33" customHeight="1">
       <c r="B58" s="17">
         <v>2</v>
       </c>
-      <c r="C58" s="300"/>
-      <c r="D58" s="301"/>
-      <c r="E58" s="301"/>
-      <c r="F58" s="302"/>
-      <c r="G58" s="300"/>
-      <c r="H58" s="301"/>
-      <c r="I58" s="301"/>
-      <c r="J58" s="394"/>
-      <c r="K58" s="393"/>
-      <c r="L58" s="301"/>
-      <c r="M58" s="301"/>
-      <c r="N58" s="302"/>
-      <c r="O58" s="300"/>
-      <c r="P58" s="301"/>
-      <c r="Q58" s="301"/>
-      <c r="R58" s="302"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="146"/>
+      <c r="K58" s="142"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="143"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="145"/>
+      <c r="P58" s="143"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="144"/>
       <c r="S58" s="19"/>
     </row>
     <row r="59" spans="2:19" ht="33" customHeight="1">
       <c r="B59" s="17">
         <v>3</v>
       </c>
-      <c r="C59" s="180"/>
-      <c r="D59" s="180"/>
-      <c r="E59" s="180"/>
-      <c r="F59" s="180"/>
-      <c r="G59" s="180"/>
-      <c r="H59" s="180"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="185"/>
-      <c r="K59" s="183"/>
-      <c r="L59" s="180"/>
-      <c r="M59" s="180"/>
-      <c r="N59" s="180"/>
-      <c r="O59" s="180"/>
-      <c r="P59" s="180"/>
-      <c r="Q59" s="180"/>
-      <c r="R59" s="180"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="160"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="218"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="160"/>
+      <c r="M59" s="160"/>
+      <c r="N59" s="160"/>
+      <c r="O59" s="160"/>
+      <c r="P59" s="160"/>
+      <c r="Q59" s="160"/>
+      <c r="R59" s="160"/>
       <c r="S59" s="19"/>
     </row>
     <row r="60" spans="2:19" ht="33" customHeight="1">
       <c r="B60" s="17">
         <v>4</v>
       </c>
-      <c r="C60" s="180"/>
-      <c r="D60" s="180"/>
-      <c r="E60" s="180"/>
-      <c r="F60" s="180"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="180"/>
-      <c r="I60" s="180"/>
-      <c r="J60" s="185"/>
-      <c r="K60" s="183"/>
-      <c r="L60" s="180"/>
-      <c r="M60" s="180"/>
-      <c r="N60" s="180"/>
-      <c r="O60" s="180"/>
-      <c r="P60" s="180"/>
-      <c r="Q60" s="180"/>
-      <c r="R60" s="180"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="160"/>
+      <c r="G60" s="160"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="160"/>
+      <c r="J60" s="218"/>
+      <c r="K60" s="159"/>
+      <c r="L60" s="160"/>
+      <c r="M60" s="160"/>
+      <c r="N60" s="160"/>
+      <c r="O60" s="160"/>
+      <c r="P60" s="160"/>
+      <c r="Q60" s="160"/>
+      <c r="R60" s="160"/>
       <c r="S60" s="19"/>
     </row>
     <row r="61" spans="2:19" ht="33" customHeight="1">
-      <c r="B61" s="174" t="s">
+      <c r="B61" s="387" t="s">
         <v>3911</v>
       </c>
-      <c r="C61" s="175"/>
-      <c r="D61" s="175"/>
-      <c r="E61" s="175"/>
-      <c r="F61" s="175"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="175"/>
-      <c r="I61" s="175"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="175"/>
-      <c r="L61" s="175"/>
-      <c r="M61" s="175"/>
-      <c r="N61" s="175"/>
-      <c r="O61" s="175"/>
-      <c r="P61" s="175"/>
-      <c r="Q61" s="175"/>
-      <c r="R61" s="175"/>
-      <c r="S61" s="176"/>
+      <c r="C61" s="388"/>
+      <c r="D61" s="388"/>
+      <c r="E61" s="388"/>
+      <c r="F61" s="388"/>
+      <c r="G61" s="388"/>
+      <c r="H61" s="388"/>
+      <c r="I61" s="388"/>
+      <c r="J61" s="388"/>
+      <c r="K61" s="388"/>
+      <c r="L61" s="388"/>
+      <c r="M61" s="388"/>
+      <c r="N61" s="388"/>
+      <c r="O61" s="388"/>
+      <c r="P61" s="388"/>
+      <c r="Q61" s="388"/>
+      <c r="R61" s="388"/>
+      <c r="S61" s="389"/>
     </row>
     <row r="62" spans="2:19" ht="33" customHeight="1">
       <c r="B62" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="296" t="s">
+      <c r="C62" s="161" t="s">
         <v>3936</v>
       </c>
-      <c r="D62" s="297"/>
-      <c r="E62" s="297"/>
-      <c r="F62" s="297"/>
-      <c r="G62" s="296" t="s">
+      <c r="D62" s="162"/>
+      <c r="E62" s="162"/>
+      <c r="F62" s="162"/>
+      <c r="G62" s="161" t="s">
         <v>3937</v>
       </c>
-      <c r="H62" s="297"/>
-      <c r="I62" s="297"/>
-      <c r="J62" s="298"/>
-      <c r="K62" s="299" t="s">
+      <c r="H62" s="162"/>
+      <c r="I62" s="162"/>
+      <c r="J62" s="163"/>
+      <c r="K62" s="164" t="s">
         <v>3938</v>
       </c>
-      <c r="L62" s="297"/>
-      <c r="M62" s="297"/>
-      <c r="N62" s="297"/>
-      <c r="O62" s="296" t="s">
+      <c r="L62" s="162"/>
+      <c r="M62" s="162"/>
+      <c r="N62" s="162"/>
+      <c r="O62" s="161" t="s">
         <v>3907</v>
       </c>
-      <c r="P62" s="297"/>
-      <c r="Q62" s="297"/>
-      <c r="R62" s="297"/>
+      <c r="P62" s="162"/>
+      <c r="Q62" s="162"/>
+      <c r="R62" s="162"/>
       <c r="S62" s="18" t="s">
         <v>3873</v>
       </c>
@@ -54626,1150 +54626,1430 @@
       <c r="B63" s="17">
         <v>1</v>
       </c>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="180"/>
-      <c r="I63" s="180"/>
-      <c r="J63" s="185"/>
-      <c r="K63" s="183"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="180"/>
-      <c r="O63" s="180"/>
-      <c r="P63" s="180"/>
-      <c r="Q63" s="180"/>
-      <c r="R63" s="180"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="160"/>
+      <c r="F63" s="160"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="160"/>
+      <c r="I63" s="160"/>
+      <c r="J63" s="218"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="160"/>
+      <c r="M63" s="160"/>
+      <c r="N63" s="160"/>
+      <c r="O63" s="160"/>
+      <c r="P63" s="160"/>
+      <c r="Q63" s="160"/>
+      <c r="R63" s="160"/>
       <c r="S63" s="19"/>
     </row>
     <row r="64" spans="2:19" ht="33" customHeight="1">
       <c r="B64" s="17">
         <v>2</v>
       </c>
-      <c r="C64" s="180"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="180"/>
-      <c r="G64" s="180"/>
-      <c r="H64" s="180"/>
-      <c r="I64" s="180"/>
-      <c r="J64" s="185"/>
-      <c r="K64" s="183"/>
-      <c r="L64" s="180"/>
-      <c r="M64" s="180"/>
-      <c r="N64" s="180"/>
-      <c r="O64" s="180"/>
-      <c r="P64" s="180"/>
-      <c r="Q64" s="180"/>
-      <c r="R64" s="180"/>
+      <c r="C64" s="160"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="160"/>
+      <c r="F64" s="160"/>
+      <c r="G64" s="160"/>
+      <c r="H64" s="160"/>
+      <c r="I64" s="160"/>
+      <c r="J64" s="218"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="160"/>
+      <c r="N64" s="160"/>
+      <c r="O64" s="160"/>
+      <c r="P64" s="160"/>
+      <c r="Q64" s="160"/>
+      <c r="R64" s="160"/>
       <c r="S64" s="19"/>
     </row>
     <row r="65" spans="2:19" ht="33" customHeight="1">
       <c r="B65" s="17">
         <v>3</v>
       </c>
-      <c r="C65" s="180"/>
-      <c r="D65" s="180"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="180"/>
-      <c r="G65" s="180"/>
-      <c r="H65" s="180"/>
-      <c r="I65" s="180"/>
-      <c r="J65" s="185"/>
-      <c r="K65" s="183"/>
-      <c r="L65" s="180"/>
-      <c r="M65" s="180"/>
-      <c r="N65" s="180"/>
-      <c r="O65" s="180"/>
-      <c r="P65" s="180"/>
-      <c r="Q65" s="180"/>
-      <c r="R65" s="180"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="218"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="160"/>
+      <c r="M65" s="160"/>
+      <c r="N65" s="160"/>
+      <c r="O65" s="160"/>
+      <c r="P65" s="160"/>
+      <c r="Q65" s="160"/>
+      <c r="R65" s="160"/>
       <c r="S65" s="19"/>
     </row>
     <row r="66" spans="2:19" ht="33" customHeight="1" thickBot="1">
       <c r="B66" s="17">
         <v>4</v>
       </c>
-      <c r="C66" s="320"/>
-      <c r="D66" s="320"/>
-      <c r="E66" s="320"/>
-      <c r="F66" s="320"/>
-      <c r="G66" s="320"/>
-      <c r="H66" s="320"/>
-      <c r="I66" s="320"/>
-      <c r="J66" s="321"/>
-      <c r="K66" s="322"/>
-      <c r="L66" s="320"/>
-      <c r="M66" s="320"/>
-      <c r="N66" s="320"/>
-      <c r="O66" s="320"/>
-      <c r="P66" s="320"/>
-      <c r="Q66" s="320"/>
-      <c r="R66" s="320"/>
+      <c r="C66" s="248"/>
+      <c r="D66" s="248"/>
+      <c r="E66" s="248"/>
+      <c r="F66" s="248"/>
+      <c r="G66" s="248"/>
+      <c r="H66" s="248"/>
+      <c r="I66" s="248"/>
+      <c r="J66" s="258"/>
+      <c r="K66" s="259"/>
+      <c r="L66" s="248"/>
+      <c r="M66" s="248"/>
+      <c r="N66" s="248"/>
+      <c r="O66" s="248"/>
+      <c r="P66" s="248"/>
+      <c r="Q66" s="248"/>
+      <c r="R66" s="248"/>
       <c r="S66" s="20"/>
     </row>
     <row r="67" spans="2:19" ht="33" customHeight="1">
-      <c r="B67" s="177" t="s">
+      <c r="B67" s="215" t="s">
         <v>3876</v>
       </c>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="178"/>
-      <c r="K67" s="178"/>
-      <c r="L67" s="178"/>
-      <c r="M67" s="178"/>
-      <c r="N67" s="178"/>
-      <c r="O67" s="178"/>
-      <c r="P67" s="178"/>
-      <c r="Q67" s="178"/>
-      <c r="R67" s="178"/>
-      <c r="S67" s="179"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="216"/>
+      <c r="E67" s="216"/>
+      <c r="F67" s="216"/>
+      <c r="G67" s="216"/>
+      <c r="H67" s="216"/>
+      <c r="I67" s="216"/>
+      <c r="J67" s="216"/>
+      <c r="K67" s="216"/>
+      <c r="L67" s="216"/>
+      <c r="M67" s="216"/>
+      <c r="N67" s="216"/>
+      <c r="O67" s="216"/>
+      <c r="P67" s="216"/>
+      <c r="Q67" s="216"/>
+      <c r="R67" s="216"/>
+      <c r="S67" s="217"/>
     </row>
     <row r="68" spans="2:19" ht="33" customHeight="1">
-      <c r="B68" s="349" t="s">
+      <c r="B68" s="245" t="s">
         <v>3877</v>
       </c>
-      <c r="C68" s="350"/>
-      <c r="D68" s="350"/>
-      <c r="E68" s="350"/>
-      <c r="F68" s="350"/>
-      <c r="G68" s="350"/>
-      <c r="H68" s="350"/>
-      <c r="I68" s="350"/>
-      <c r="J68" s="350"/>
-      <c r="K68" s="350"/>
-      <c r="L68" s="350"/>
-      <c r="M68" s="351"/>
-      <c r="N68" s="329" t="s">
+      <c r="C68" s="246"/>
+      <c r="D68" s="246"/>
+      <c r="E68" s="246"/>
+      <c r="F68" s="246"/>
+      <c r="G68" s="246"/>
+      <c r="H68" s="246"/>
+      <c r="I68" s="246"/>
+      <c r="J68" s="246"/>
+      <c r="K68" s="246"/>
+      <c r="L68" s="246"/>
+      <c r="M68" s="247"/>
+      <c r="N68" s="224" t="s">
         <v>3939</v>
       </c>
-      <c r="O68" s="329"/>
-      <c r="P68" s="329"/>
-      <c r="Q68" s="329"/>
-      <c r="R68" s="329"/>
-      <c r="S68" s="330"/>
+      <c r="O68" s="224"/>
+      <c r="P68" s="224"/>
+      <c r="Q68" s="224"/>
+      <c r="R68" s="224"/>
+      <c r="S68" s="225"/>
     </row>
     <row r="69" spans="2:19" ht="33" customHeight="1">
-      <c r="B69" s="305"/>
-      <c r="C69" s="306"/>
-      <c r="D69" s="306"/>
-      <c r="E69" s="306"/>
-      <c r="F69" s="306"/>
-      <c r="G69" s="306"/>
-      <c r="H69" s="306"/>
-      <c r="I69" s="306"/>
-      <c r="J69" s="306"/>
-      <c r="K69" s="306"/>
-      <c r="L69" s="306"/>
-      <c r="M69" s="307"/>
-      <c r="N69" s="331"/>
-      <c r="O69" s="331"/>
-      <c r="P69" s="331"/>
-      <c r="Q69" s="331"/>
-      <c r="R69" s="331"/>
-      <c r="S69" s="332"/>
+      <c r="B69" s="273"/>
+      <c r="C69" s="274"/>
+      <c r="D69" s="274"/>
+      <c r="E69" s="274"/>
+      <c r="F69" s="274"/>
+      <c r="G69" s="274"/>
+      <c r="H69" s="274"/>
+      <c r="I69" s="274"/>
+      <c r="J69" s="274"/>
+      <c r="K69" s="274"/>
+      <c r="L69" s="274"/>
+      <c r="M69" s="275"/>
+      <c r="N69" s="226"/>
+      <c r="O69" s="226"/>
+      <c r="P69" s="226"/>
+      <c r="Q69" s="226"/>
+      <c r="R69" s="226"/>
+      <c r="S69" s="227"/>
     </row>
     <row r="70" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B70" s="314"/>
-      <c r="C70" s="295" t="s">
+      <c r="B70" s="219"/>
+      <c r="C70" s="249" t="s">
         <v>3878</v>
       </c>
-      <c r="D70" s="313" t="s">
+      <c r="D70" s="243" t="s">
         <v>212</v>
       </c>
-      <c r="E70" s="313"/>
-      <c r="F70" s="313"/>
-      <c r="G70" s="303"/>
-      <c r="H70" s="303"/>
-      <c r="I70" s="303"/>
-      <c r="J70" s="303"/>
-      <c r="K70" s="303"/>
-      <c r="L70" s="303"/>
-      <c r="M70" s="304"/>
-      <c r="N70" s="333"/>
-      <c r="O70" s="333"/>
-      <c r="P70" s="333"/>
-      <c r="Q70" s="333"/>
-      <c r="R70" s="333"/>
-      <c r="S70" s="334"/>
+      <c r="E70" s="243"/>
+      <c r="F70" s="243"/>
+      <c r="G70" s="220"/>
+      <c r="H70" s="220"/>
+      <c r="I70" s="220"/>
+      <c r="J70" s="220"/>
+      <c r="K70" s="220"/>
+      <c r="L70" s="220"/>
+      <c r="M70" s="221"/>
+      <c r="N70" s="228"/>
+      <c r="O70" s="228"/>
+      <c r="P70" s="228"/>
+      <c r="Q70" s="228"/>
+      <c r="R70" s="228"/>
+      <c r="S70" s="229"/>
     </row>
     <row r="71" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B71" s="314"/>
-      <c r="C71" s="295"/>
-      <c r="D71" s="313"/>
-      <c r="E71" s="313"/>
-      <c r="F71" s="313"/>
-      <c r="G71" s="303"/>
-      <c r="H71" s="303"/>
-      <c r="I71" s="303"/>
-      <c r="J71" s="303"/>
-      <c r="K71" s="303"/>
-      <c r="L71" s="303"/>
-      <c r="M71" s="304"/>
-      <c r="N71" s="333"/>
-      <c r="O71" s="333"/>
-      <c r="P71" s="333"/>
-      <c r="Q71" s="333"/>
-      <c r="R71" s="333"/>
-      <c r="S71" s="334"/>
+      <c r="B71" s="219"/>
+      <c r="C71" s="249"/>
+      <c r="D71" s="243"/>
+      <c r="E71" s="243"/>
+      <c r="F71" s="243"/>
+      <c r="G71" s="220"/>
+      <c r="H71" s="220"/>
+      <c r="I71" s="220"/>
+      <c r="J71" s="220"/>
+      <c r="K71" s="220"/>
+      <c r="L71" s="220"/>
+      <c r="M71" s="221"/>
+      <c r="N71" s="228"/>
+      <c r="O71" s="228"/>
+      <c r="P71" s="228"/>
+      <c r="Q71" s="228"/>
+      <c r="R71" s="228"/>
+      <c r="S71" s="229"/>
     </row>
     <row r="72" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="314"/>
-      <c r="C72" s="295"/>
-      <c r="D72" s="313"/>
-      <c r="E72" s="313"/>
-      <c r="F72" s="313"/>
-      <c r="G72" s="303"/>
-      <c r="H72" s="303"/>
-      <c r="I72" s="303"/>
-      <c r="J72" s="303"/>
-      <c r="K72" s="303"/>
-      <c r="L72" s="303"/>
-      <c r="M72" s="304"/>
-      <c r="N72" s="333"/>
-      <c r="O72" s="333"/>
-      <c r="P72" s="333"/>
-      <c r="Q72" s="333"/>
-      <c r="R72" s="333"/>
-      <c r="S72" s="334"/>
+      <c r="B72" s="219"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="243"/>
+      <c r="E72" s="243"/>
+      <c r="F72" s="243"/>
+      <c r="G72" s="220"/>
+      <c r="H72" s="220"/>
+      <c r="I72" s="220"/>
+      <c r="J72" s="220"/>
+      <c r="K72" s="220"/>
+      <c r="L72" s="220"/>
+      <c r="M72" s="221"/>
+      <c r="N72" s="228"/>
+      <c r="O72" s="228"/>
+      <c r="P72" s="228"/>
+      <c r="Q72" s="228"/>
+      <c r="R72" s="228"/>
+      <c r="S72" s="229"/>
     </row>
     <row r="73" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="314"/>
-      <c r="C73" s="295" t="s">
+      <c r="B73" s="219"/>
+      <c r="C73" s="249" t="s">
         <v>3879</v>
       </c>
-      <c r="D73" s="313" t="s">
+      <c r="D73" s="243" t="s">
         <v>4057</v>
       </c>
-      <c r="E73" s="313"/>
-      <c r="F73" s="313"/>
-      <c r="G73" s="303"/>
-      <c r="H73" s="303"/>
-      <c r="I73" s="303"/>
-      <c r="J73" s="303"/>
-      <c r="K73" s="303"/>
-      <c r="L73" s="303"/>
-      <c r="M73" s="304"/>
-      <c r="N73" s="333"/>
-      <c r="O73" s="333"/>
-      <c r="P73" s="333"/>
-      <c r="Q73" s="333"/>
-      <c r="R73" s="333"/>
-      <c r="S73" s="334"/>
+      <c r="E73" s="243"/>
+      <c r="F73" s="243"/>
+      <c r="G73" s="220"/>
+      <c r="H73" s="220"/>
+      <c r="I73" s="220"/>
+      <c r="J73" s="220"/>
+      <c r="K73" s="220"/>
+      <c r="L73" s="220"/>
+      <c r="M73" s="221"/>
+      <c r="N73" s="228"/>
+      <c r="O73" s="228"/>
+      <c r="P73" s="228"/>
+      <c r="Q73" s="228"/>
+      <c r="R73" s="228"/>
+      <c r="S73" s="229"/>
     </row>
     <row r="74" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B74" s="314"/>
-      <c r="C74" s="295"/>
-      <c r="D74" s="313"/>
-      <c r="E74" s="313"/>
-      <c r="F74" s="313"/>
-      <c r="G74" s="303"/>
-      <c r="H74" s="303"/>
-      <c r="I74" s="303"/>
-      <c r="J74" s="303"/>
-      <c r="K74" s="303"/>
-      <c r="L74" s="303"/>
-      <c r="M74" s="304"/>
-      <c r="N74" s="333"/>
-      <c r="O74" s="333"/>
-      <c r="P74" s="333"/>
-      <c r="Q74" s="333"/>
-      <c r="R74" s="333"/>
-      <c r="S74" s="334"/>
+      <c r="B74" s="219"/>
+      <c r="C74" s="249"/>
+      <c r="D74" s="243"/>
+      <c r="E74" s="243"/>
+      <c r="F74" s="243"/>
+      <c r="G74" s="220"/>
+      <c r="H74" s="220"/>
+      <c r="I74" s="220"/>
+      <c r="J74" s="220"/>
+      <c r="K74" s="220"/>
+      <c r="L74" s="220"/>
+      <c r="M74" s="221"/>
+      <c r="N74" s="228"/>
+      <c r="O74" s="228"/>
+      <c r="P74" s="228"/>
+      <c r="Q74" s="228"/>
+      <c r="R74" s="228"/>
+      <c r="S74" s="229"/>
     </row>
     <row r="75" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B75" s="314"/>
-      <c r="C75" s="295"/>
-      <c r="D75" s="313"/>
-      <c r="E75" s="313"/>
-      <c r="F75" s="313"/>
-      <c r="G75" s="303"/>
-      <c r="H75" s="303"/>
-      <c r="I75" s="303"/>
-      <c r="J75" s="303"/>
-      <c r="K75" s="303"/>
-      <c r="L75" s="303"/>
-      <c r="M75" s="304"/>
-      <c r="N75" s="333"/>
-      <c r="O75" s="333"/>
-      <c r="P75" s="333"/>
-      <c r="Q75" s="333"/>
-      <c r="R75" s="333"/>
-      <c r="S75" s="334"/>
+      <c r="B75" s="219"/>
+      <c r="C75" s="249"/>
+      <c r="D75" s="243"/>
+      <c r="E75" s="243"/>
+      <c r="F75" s="243"/>
+      <c r="G75" s="220"/>
+      <c r="H75" s="220"/>
+      <c r="I75" s="220"/>
+      <c r="J75" s="220"/>
+      <c r="K75" s="220"/>
+      <c r="L75" s="220"/>
+      <c r="M75" s="221"/>
+      <c r="N75" s="228"/>
+      <c r="O75" s="228"/>
+      <c r="P75" s="228"/>
+      <c r="Q75" s="228"/>
+      <c r="R75" s="228"/>
+      <c r="S75" s="229"/>
     </row>
     <row r="76" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="314"/>
-      <c r="C76" s="295" t="s">
+      <c r="B76" s="219"/>
+      <c r="C76" s="249" t="s">
         <v>3880</v>
       </c>
-      <c r="D76" s="313" t="s">
+      <c r="D76" s="243" t="s">
         <v>4058</v>
       </c>
-      <c r="E76" s="313"/>
-      <c r="F76" s="313"/>
-      <c r="G76" s="303"/>
-      <c r="H76" s="303"/>
-      <c r="I76" s="303"/>
-      <c r="J76" s="303"/>
-      <c r="K76" s="303"/>
-      <c r="L76" s="303"/>
-      <c r="M76" s="304"/>
-      <c r="N76" s="333"/>
-      <c r="O76" s="333"/>
-      <c r="P76" s="333"/>
-      <c r="Q76" s="333"/>
-      <c r="R76" s="333"/>
-      <c r="S76" s="334"/>
+      <c r="E76" s="243"/>
+      <c r="F76" s="243"/>
+      <c r="G76" s="220"/>
+      <c r="H76" s="220"/>
+      <c r="I76" s="220"/>
+      <c r="J76" s="220"/>
+      <c r="K76" s="220"/>
+      <c r="L76" s="220"/>
+      <c r="M76" s="221"/>
+      <c r="N76" s="228"/>
+      <c r="O76" s="228"/>
+      <c r="P76" s="228"/>
+      <c r="Q76" s="228"/>
+      <c r="R76" s="228"/>
+      <c r="S76" s="229"/>
     </row>
     <row r="77" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="314"/>
-      <c r="C77" s="295"/>
-      <c r="D77" s="313"/>
-      <c r="E77" s="313"/>
-      <c r="F77" s="313"/>
-      <c r="G77" s="303"/>
-      <c r="H77" s="303"/>
-      <c r="I77" s="303"/>
-      <c r="J77" s="303"/>
-      <c r="K77" s="303"/>
-      <c r="L77" s="303"/>
-      <c r="M77" s="304"/>
-      <c r="N77" s="333"/>
-      <c r="O77" s="333"/>
-      <c r="P77" s="333"/>
-      <c r="Q77" s="333"/>
-      <c r="R77" s="333"/>
-      <c r="S77" s="334"/>
+      <c r="B77" s="219"/>
+      <c r="C77" s="249"/>
+      <c r="D77" s="243"/>
+      <c r="E77" s="243"/>
+      <c r="F77" s="243"/>
+      <c r="G77" s="220"/>
+      <c r="H77" s="220"/>
+      <c r="I77" s="220"/>
+      <c r="J77" s="220"/>
+      <c r="K77" s="220"/>
+      <c r="L77" s="220"/>
+      <c r="M77" s="221"/>
+      <c r="N77" s="228"/>
+      <c r="O77" s="228"/>
+      <c r="P77" s="228"/>
+      <c r="Q77" s="228"/>
+      <c r="R77" s="228"/>
+      <c r="S77" s="229"/>
     </row>
     <row r="78" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B78" s="314"/>
-      <c r="C78" s="295"/>
-      <c r="D78" s="313"/>
-      <c r="E78" s="313"/>
-      <c r="F78" s="313"/>
-      <c r="G78" s="303"/>
-      <c r="H78" s="303"/>
-      <c r="I78" s="303"/>
-      <c r="J78" s="303"/>
-      <c r="K78" s="303"/>
-      <c r="L78" s="303"/>
-      <c r="M78" s="304"/>
-      <c r="N78" s="333"/>
-      <c r="O78" s="333"/>
-      <c r="P78" s="333"/>
-      <c r="Q78" s="333"/>
-      <c r="R78" s="333"/>
-      <c r="S78" s="334"/>
+      <c r="B78" s="219"/>
+      <c r="C78" s="249"/>
+      <c r="D78" s="243"/>
+      <c r="E78" s="243"/>
+      <c r="F78" s="243"/>
+      <c r="G78" s="220"/>
+      <c r="H78" s="220"/>
+      <c r="I78" s="220"/>
+      <c r="J78" s="220"/>
+      <c r="K78" s="220"/>
+      <c r="L78" s="220"/>
+      <c r="M78" s="221"/>
+      <c r="N78" s="228"/>
+      <c r="O78" s="228"/>
+      <c r="P78" s="228"/>
+      <c r="Q78" s="228"/>
+      <c r="R78" s="228"/>
+      <c r="S78" s="229"/>
     </row>
     <row r="79" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B79" s="314"/>
-      <c r="C79" s="295" t="s">
+      <c r="B79" s="219"/>
+      <c r="C79" s="249" t="s">
         <v>3883</v>
       </c>
-      <c r="D79" s="313" t="s">
+      <c r="D79" s="243" t="s">
         <v>3881</v>
       </c>
-      <c r="E79" s="313"/>
-      <c r="F79" s="313"/>
-      <c r="G79" s="303"/>
-      <c r="H79" s="303"/>
-      <c r="I79" s="303"/>
-      <c r="J79" s="303"/>
-      <c r="K79" s="303"/>
-      <c r="L79" s="303"/>
-      <c r="M79" s="304"/>
-      <c r="N79" s="333"/>
-      <c r="O79" s="333"/>
-      <c r="P79" s="333"/>
-      <c r="Q79" s="333"/>
-      <c r="R79" s="333"/>
-      <c r="S79" s="334"/>
+      <c r="E79" s="243"/>
+      <c r="F79" s="243"/>
+      <c r="G79" s="220"/>
+      <c r="H79" s="220"/>
+      <c r="I79" s="220"/>
+      <c r="J79" s="220"/>
+      <c r="K79" s="220"/>
+      <c r="L79" s="220"/>
+      <c r="M79" s="221"/>
+      <c r="N79" s="228"/>
+      <c r="O79" s="228"/>
+      <c r="P79" s="228"/>
+      <c r="Q79" s="228"/>
+      <c r="R79" s="228"/>
+      <c r="S79" s="229"/>
     </row>
     <row r="80" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B80" s="314"/>
-      <c r="C80" s="295"/>
-      <c r="D80" s="313"/>
-      <c r="E80" s="313"/>
-      <c r="F80" s="313"/>
-      <c r="G80" s="303"/>
-      <c r="H80" s="303"/>
-      <c r="I80" s="303"/>
-      <c r="J80" s="303"/>
-      <c r="K80" s="303"/>
-      <c r="L80" s="303"/>
-      <c r="M80" s="304"/>
-      <c r="N80" s="333"/>
-      <c r="O80" s="333"/>
-      <c r="P80" s="333"/>
-      <c r="Q80" s="333"/>
-      <c r="R80" s="333"/>
-      <c r="S80" s="334"/>
+      <c r="B80" s="219"/>
+      <c r="C80" s="249"/>
+      <c r="D80" s="243"/>
+      <c r="E80" s="243"/>
+      <c r="F80" s="243"/>
+      <c r="G80" s="220"/>
+      <c r="H80" s="220"/>
+      <c r="I80" s="220"/>
+      <c r="J80" s="220"/>
+      <c r="K80" s="220"/>
+      <c r="L80" s="220"/>
+      <c r="M80" s="221"/>
+      <c r="N80" s="228"/>
+      <c r="O80" s="228"/>
+      <c r="P80" s="228"/>
+      <c r="Q80" s="228"/>
+      <c r="R80" s="228"/>
+      <c r="S80" s="229"/>
     </row>
     <row r="81" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B81" s="314"/>
-      <c r="C81" s="295"/>
-      <c r="D81" s="313"/>
-      <c r="E81" s="313"/>
-      <c r="F81" s="313"/>
-      <c r="G81" s="303"/>
-      <c r="H81" s="303"/>
-      <c r="I81" s="303"/>
-      <c r="J81" s="303"/>
-      <c r="K81" s="303"/>
-      <c r="L81" s="303"/>
-      <c r="M81" s="304"/>
-      <c r="N81" s="333"/>
-      <c r="O81" s="333"/>
-      <c r="P81" s="333"/>
-      <c r="Q81" s="333"/>
-      <c r="R81" s="333"/>
-      <c r="S81" s="334"/>
+      <c r="B81" s="219"/>
+      <c r="C81" s="249"/>
+      <c r="D81" s="243"/>
+      <c r="E81" s="243"/>
+      <c r="F81" s="243"/>
+      <c r="G81" s="220"/>
+      <c r="H81" s="220"/>
+      <c r="I81" s="220"/>
+      <c r="J81" s="220"/>
+      <c r="K81" s="220"/>
+      <c r="L81" s="220"/>
+      <c r="M81" s="221"/>
+      <c r="N81" s="228"/>
+      <c r="O81" s="228"/>
+      <c r="P81" s="228"/>
+      <c r="Q81" s="228"/>
+      <c r="R81" s="228"/>
+      <c r="S81" s="229"/>
     </row>
     <row r="82" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B82" s="314"/>
-      <c r="C82" s="295" t="s">
+      <c r="B82" s="219"/>
+      <c r="C82" s="249" t="s">
         <v>3882</v>
       </c>
-      <c r="D82" s="313" t="s">
+      <c r="D82" s="243" t="s">
         <v>213</v>
       </c>
-      <c r="E82" s="313"/>
-      <c r="F82" s="313"/>
-      <c r="G82" s="303"/>
-      <c r="H82" s="303"/>
-      <c r="I82" s="303"/>
-      <c r="J82" s="303"/>
-      <c r="K82" s="303"/>
-      <c r="L82" s="303"/>
-      <c r="M82" s="304"/>
-      <c r="N82" s="333"/>
-      <c r="O82" s="333"/>
-      <c r="P82" s="333"/>
-      <c r="Q82" s="333"/>
-      <c r="R82" s="333"/>
-      <c r="S82" s="334"/>
+      <c r="E82" s="243"/>
+      <c r="F82" s="243"/>
+      <c r="G82" s="220"/>
+      <c r="H82" s="220"/>
+      <c r="I82" s="220"/>
+      <c r="J82" s="220"/>
+      <c r="K82" s="220"/>
+      <c r="L82" s="220"/>
+      <c r="M82" s="221"/>
+      <c r="N82" s="228"/>
+      <c r="O82" s="228"/>
+      <c r="P82" s="228"/>
+      <c r="Q82" s="228"/>
+      <c r="R82" s="228"/>
+      <c r="S82" s="229"/>
     </row>
     <row r="83" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B83" s="314"/>
-      <c r="C83" s="295"/>
-      <c r="D83" s="313"/>
-      <c r="E83" s="313"/>
-      <c r="F83" s="313"/>
-      <c r="G83" s="303"/>
-      <c r="H83" s="303"/>
-      <c r="I83" s="303"/>
-      <c r="J83" s="303"/>
-      <c r="K83" s="303"/>
-      <c r="L83" s="303"/>
-      <c r="M83" s="304"/>
-      <c r="N83" s="333"/>
-      <c r="O83" s="333"/>
-      <c r="P83" s="333"/>
-      <c r="Q83" s="333"/>
-      <c r="R83" s="333"/>
-      <c r="S83" s="334"/>
+      <c r="B83" s="219"/>
+      <c r="C83" s="249"/>
+      <c r="D83" s="243"/>
+      <c r="E83" s="243"/>
+      <c r="F83" s="243"/>
+      <c r="G83" s="220"/>
+      <c r="H83" s="220"/>
+      <c r="I83" s="220"/>
+      <c r="J83" s="220"/>
+      <c r="K83" s="220"/>
+      <c r="L83" s="220"/>
+      <c r="M83" s="221"/>
+      <c r="N83" s="228"/>
+      <c r="O83" s="228"/>
+      <c r="P83" s="228"/>
+      <c r="Q83" s="228"/>
+      <c r="R83" s="228"/>
+      <c r="S83" s="229"/>
     </row>
     <row r="84" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B84" s="314"/>
-      <c r="C84" s="295"/>
-      <c r="D84" s="313"/>
-      <c r="E84" s="313"/>
-      <c r="F84" s="313"/>
-      <c r="G84" s="303"/>
-      <c r="H84" s="303"/>
-      <c r="I84" s="303"/>
-      <c r="J84" s="303"/>
-      <c r="K84" s="303"/>
-      <c r="L84" s="303"/>
-      <c r="M84" s="304"/>
-      <c r="N84" s="333"/>
-      <c r="O84" s="333"/>
-      <c r="P84" s="333"/>
-      <c r="Q84" s="333"/>
-      <c r="R84" s="333"/>
-      <c r="S84" s="334"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="249"/>
+      <c r="D84" s="243"/>
+      <c r="E84" s="243"/>
+      <c r="F84" s="243"/>
+      <c r="G84" s="220"/>
+      <c r="H84" s="220"/>
+      <c r="I84" s="220"/>
+      <c r="J84" s="220"/>
+      <c r="K84" s="220"/>
+      <c r="L84" s="220"/>
+      <c r="M84" s="221"/>
+      <c r="N84" s="228"/>
+      <c r="O84" s="228"/>
+      <c r="P84" s="228"/>
+      <c r="Q84" s="228"/>
+      <c r="R84" s="228"/>
+      <c r="S84" s="229"/>
     </row>
     <row r="85" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B85" s="314"/>
-      <c r="C85" s="295" t="s">
+      <c r="B85" s="219"/>
+      <c r="C85" s="249" t="s">
         <v>3884</v>
       </c>
-      <c r="D85" s="313" t="s">
+      <c r="D85" s="243" t="s">
         <v>3885</v>
       </c>
-      <c r="E85" s="313"/>
-      <c r="F85" s="313"/>
-      <c r="G85" s="303"/>
-      <c r="H85" s="303"/>
-      <c r="I85" s="303"/>
-      <c r="J85" s="303"/>
-      <c r="K85" s="303"/>
-      <c r="L85" s="303"/>
-      <c r="M85" s="304"/>
-      <c r="N85" s="333"/>
-      <c r="O85" s="333"/>
-      <c r="P85" s="333"/>
-      <c r="Q85" s="333"/>
-      <c r="R85" s="333"/>
-      <c r="S85" s="334"/>
+      <c r="E85" s="243"/>
+      <c r="F85" s="243"/>
+      <c r="G85" s="220"/>
+      <c r="H85" s="220"/>
+      <c r="I85" s="220"/>
+      <c r="J85" s="220"/>
+      <c r="K85" s="220"/>
+      <c r="L85" s="220"/>
+      <c r="M85" s="221"/>
+      <c r="N85" s="228"/>
+      <c r="O85" s="228"/>
+      <c r="P85" s="228"/>
+      <c r="Q85" s="228"/>
+      <c r="R85" s="228"/>
+      <c r="S85" s="229"/>
     </row>
     <row r="86" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B86" s="314"/>
-      <c r="C86" s="295"/>
-      <c r="D86" s="313"/>
-      <c r="E86" s="313"/>
-      <c r="F86" s="313"/>
-      <c r="G86" s="303"/>
-      <c r="H86" s="303"/>
-      <c r="I86" s="303"/>
-      <c r="J86" s="303"/>
-      <c r="K86" s="303"/>
-      <c r="L86" s="303"/>
-      <c r="M86" s="304"/>
-      <c r="N86" s="333"/>
-      <c r="O86" s="333"/>
-      <c r="P86" s="333"/>
-      <c r="Q86" s="333"/>
-      <c r="R86" s="333"/>
-      <c r="S86" s="334"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="249"/>
+      <c r="D86" s="243"/>
+      <c r="E86" s="243"/>
+      <c r="F86" s="243"/>
+      <c r="G86" s="220"/>
+      <c r="H86" s="220"/>
+      <c r="I86" s="220"/>
+      <c r="J86" s="220"/>
+      <c r="K86" s="220"/>
+      <c r="L86" s="220"/>
+      <c r="M86" s="221"/>
+      <c r="N86" s="228"/>
+      <c r="O86" s="228"/>
+      <c r="P86" s="228"/>
+      <c r="Q86" s="228"/>
+      <c r="R86" s="228"/>
+      <c r="S86" s="229"/>
     </row>
     <row r="87" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="315"/>
-      <c r="C87" s="352"/>
-      <c r="D87" s="348"/>
-      <c r="E87" s="348"/>
-      <c r="F87" s="348"/>
-      <c r="G87" s="327"/>
-      <c r="H87" s="327"/>
-      <c r="I87" s="327"/>
-      <c r="J87" s="327"/>
-      <c r="K87" s="327"/>
-      <c r="L87" s="327"/>
-      <c r="M87" s="328"/>
-      <c r="N87" s="333"/>
-      <c r="O87" s="333"/>
-      <c r="P87" s="333"/>
-      <c r="Q87" s="333"/>
-      <c r="R87" s="333"/>
-      <c r="S87" s="334"/>
+      <c r="B87" s="251"/>
+      <c r="C87" s="250"/>
+      <c r="D87" s="244"/>
+      <c r="E87" s="244"/>
+      <c r="F87" s="244"/>
+      <c r="G87" s="222"/>
+      <c r="H87" s="222"/>
+      <c r="I87" s="222"/>
+      <c r="J87" s="222"/>
+      <c r="K87" s="222"/>
+      <c r="L87" s="222"/>
+      <c r="M87" s="223"/>
+      <c r="N87" s="228"/>
+      <c r="O87" s="228"/>
+      <c r="P87" s="228"/>
+      <c r="Q87" s="228"/>
+      <c r="R87" s="228"/>
+      <c r="S87" s="229"/>
     </row>
     <row r="88" spans="2:19" ht="35.1" customHeight="1">
-      <c r="B88" s="345" t="s">
+      <c r="B88" s="240" t="s">
         <v>3886</v>
       </c>
-      <c r="C88" s="346"/>
-      <c r="D88" s="346"/>
-      <c r="E88" s="346"/>
-      <c r="F88" s="346"/>
-      <c r="G88" s="346"/>
-      <c r="H88" s="346"/>
-      <c r="I88" s="346"/>
-      <c r="J88" s="346"/>
-      <c r="K88" s="346"/>
-      <c r="L88" s="346"/>
-      <c r="M88" s="347"/>
-      <c r="N88" s="335"/>
-      <c r="O88" s="333"/>
-      <c r="P88" s="333"/>
-      <c r="Q88" s="333"/>
-      <c r="R88" s="333"/>
-      <c r="S88" s="334"/>
+      <c r="C88" s="241"/>
+      <c r="D88" s="241"/>
+      <c r="E88" s="241"/>
+      <c r="F88" s="241"/>
+      <c r="G88" s="241"/>
+      <c r="H88" s="241"/>
+      <c r="I88" s="241"/>
+      <c r="J88" s="241"/>
+      <c r="K88" s="241"/>
+      <c r="L88" s="241"/>
+      <c r="M88" s="242"/>
+      <c r="N88" s="230"/>
+      <c r="O88" s="228"/>
+      <c r="P88" s="228"/>
+      <c r="Q88" s="228"/>
+      <c r="R88" s="228"/>
+      <c r="S88" s="229"/>
     </row>
     <row r="89" spans="2:19" ht="22.5" customHeight="1">
-      <c r="B89" s="339" t="str">
+      <c r="B89" s="234" t="str">
         <f>IF(LEN(G76)&gt;1,G76&amp;" "&amp;G73&amp;", "&amp;G70&amp;" "&amp;G79&amp;" "&amp;G82&amp;" "&amp;G85&amp;".","")</f>
         <v/>
       </c>
-      <c r="C89" s="340"/>
-      <c r="D89" s="340"/>
-      <c r="E89" s="340"/>
-      <c r="F89" s="340"/>
-      <c r="G89" s="340"/>
-      <c r="H89" s="340"/>
-      <c r="I89" s="340"/>
-      <c r="J89" s="340"/>
-      <c r="K89" s="340"/>
-      <c r="L89" s="340"/>
-      <c r="M89" s="341"/>
-      <c r="N89" s="335"/>
-      <c r="O89" s="333"/>
-      <c r="P89" s="333"/>
-      <c r="Q89" s="333"/>
-      <c r="R89" s="333"/>
-      <c r="S89" s="334"/>
+      <c r="C89" s="235"/>
+      <c r="D89" s="235"/>
+      <c r="E89" s="235"/>
+      <c r="F89" s="235"/>
+      <c r="G89" s="235"/>
+      <c r="H89" s="235"/>
+      <c r="I89" s="235"/>
+      <c r="J89" s="235"/>
+      <c r="K89" s="235"/>
+      <c r="L89" s="235"/>
+      <c r="M89" s="236"/>
+      <c r="N89" s="230"/>
+      <c r="O89" s="228"/>
+      <c r="P89" s="228"/>
+      <c r="Q89" s="228"/>
+      <c r="R89" s="228"/>
+      <c r="S89" s="229"/>
     </row>
     <row r="90" spans="2:19" ht="69.900000000000006" customHeight="1" thickBot="1">
-      <c r="B90" s="342"/>
-      <c r="C90" s="343"/>
-      <c r="D90" s="343"/>
-      <c r="E90" s="343"/>
-      <c r="F90" s="343"/>
-      <c r="G90" s="343"/>
-      <c r="H90" s="343"/>
-      <c r="I90" s="343"/>
-      <c r="J90" s="343"/>
-      <c r="K90" s="343"/>
-      <c r="L90" s="343"/>
-      <c r="M90" s="344"/>
-      <c r="N90" s="336"/>
-      <c r="O90" s="337"/>
-      <c r="P90" s="337"/>
-      <c r="Q90" s="337"/>
-      <c r="R90" s="337"/>
-      <c r="S90" s="338"/>
+      <c r="B90" s="237"/>
+      <c r="C90" s="238"/>
+      <c r="D90" s="238"/>
+      <c r="E90" s="238"/>
+      <c r="F90" s="238"/>
+      <c r="G90" s="238"/>
+      <c r="H90" s="238"/>
+      <c r="I90" s="238"/>
+      <c r="J90" s="238"/>
+      <c r="K90" s="238"/>
+      <c r="L90" s="238"/>
+      <c r="M90" s="239"/>
+      <c r="N90" s="231"/>
+      <c r="O90" s="232"/>
+      <c r="P90" s="232"/>
+      <c r="Q90" s="232"/>
+      <c r="R90" s="232"/>
+      <c r="S90" s="233"/>
     </row>
     <row r="91" spans="2:19" ht="33" customHeight="1">
-      <c r="B91" s="177" t="s">
+      <c r="B91" s="215" t="s">
         <v>4035</v>
       </c>
-      <c r="C91" s="178"/>
-      <c r="D91" s="178"/>
-      <c r="E91" s="178"/>
-      <c r="F91" s="178"/>
-      <c r="G91" s="178"/>
-      <c r="H91" s="178"/>
-      <c r="I91" s="178"/>
-      <c r="J91" s="178"/>
-      <c r="K91" s="178"/>
-      <c r="L91" s="178"/>
-      <c r="M91" s="178"/>
-      <c r="N91" s="178"/>
-      <c r="O91" s="178"/>
-      <c r="P91" s="178"/>
-      <c r="Q91" s="178"/>
-      <c r="R91" s="178"/>
-      <c r="S91" s="179"/>
+      <c r="C91" s="216"/>
+      <c r="D91" s="216"/>
+      <c r="E91" s="216"/>
+      <c r="F91" s="216"/>
+      <c r="G91" s="216"/>
+      <c r="H91" s="216"/>
+      <c r="I91" s="216"/>
+      <c r="J91" s="216"/>
+      <c r="K91" s="216"/>
+      <c r="L91" s="216"/>
+      <c r="M91" s="216"/>
+      <c r="N91" s="216"/>
+      <c r="O91" s="216"/>
+      <c r="P91" s="216"/>
+      <c r="Q91" s="216"/>
+      <c r="R91" s="216"/>
+      <c r="S91" s="217"/>
     </row>
     <row r="92" spans="2:19" ht="33" customHeight="1">
-      <c r="B92" s="308" t="s">
+      <c r="B92" s="264" t="s">
         <v>3803</v>
       </c>
-      <c r="C92" s="309"/>
-      <c r="D92" s="316" t="str">
+      <c r="C92" s="265"/>
+      <c r="D92" s="252" t="str">
         <f>B89</f>
         <v/>
       </c>
-      <c r="E92" s="152"/>
-      <c r="F92" s="152"/>
-      <c r="G92" s="152"/>
-      <c r="H92" s="152"/>
-      <c r="I92" s="152"/>
-      <c r="J92" s="152"/>
-      <c r="K92" s="152"/>
-      <c r="L92" s="152"/>
-      <c r="M92" s="152"/>
-      <c r="N92" s="152"/>
-      <c r="O92" s="152"/>
-      <c r="P92" s="152"/>
-      <c r="Q92" s="152"/>
-      <c r="R92" s="152"/>
-      <c r="S92" s="153"/>
+      <c r="E92" s="253"/>
+      <c r="F92" s="253"/>
+      <c r="G92" s="253"/>
+      <c r="H92" s="253"/>
+      <c r="I92" s="253"/>
+      <c r="J92" s="253"/>
+      <c r="K92" s="253"/>
+      <c r="L92" s="253"/>
+      <c r="M92" s="253"/>
+      <c r="N92" s="253"/>
+      <c r="O92" s="253"/>
+      <c r="P92" s="253"/>
+      <c r="Q92" s="253"/>
+      <c r="R92" s="253"/>
+      <c r="S92" s="254"/>
     </row>
     <row r="93" spans="2:19" ht="33" customHeight="1">
-      <c r="B93" s="308"/>
-      <c r="C93" s="309"/>
-      <c r="D93" s="317"/>
-      <c r="E93" s="318"/>
-      <c r="F93" s="318"/>
-      <c r="G93" s="318"/>
-      <c r="H93" s="318"/>
-      <c r="I93" s="318"/>
-      <c r="J93" s="318"/>
-      <c r="K93" s="318"/>
-      <c r="L93" s="318"/>
-      <c r="M93" s="318"/>
-      <c r="N93" s="318"/>
-      <c r="O93" s="318"/>
-      <c r="P93" s="318"/>
-      <c r="Q93" s="318"/>
-      <c r="R93" s="318"/>
-      <c r="S93" s="319"/>
+      <c r="B93" s="264"/>
+      <c r="C93" s="265"/>
+      <c r="D93" s="255"/>
+      <c r="E93" s="256"/>
+      <c r="F93" s="256"/>
+      <c r="G93" s="256"/>
+      <c r="H93" s="256"/>
+      <c r="I93" s="256"/>
+      <c r="J93" s="256"/>
+      <c r="K93" s="256"/>
+      <c r="L93" s="256"/>
+      <c r="M93" s="256"/>
+      <c r="N93" s="256"/>
+      <c r="O93" s="256"/>
+      <c r="P93" s="256"/>
+      <c r="Q93" s="256"/>
+      <c r="R93" s="256"/>
+      <c r="S93" s="257"/>
     </row>
     <row r="94" spans="2:19" ht="33" customHeight="1">
-      <c r="B94" s="312" t="s">
+      <c r="B94" s="272" t="s">
         <v>214</v>
       </c>
-      <c r="C94" s="310"/>
-      <c r="D94" s="310"/>
-      <c r="E94" s="310" t="s">
+      <c r="C94" s="270"/>
+      <c r="D94" s="270"/>
+      <c r="E94" s="270" t="s">
         <v>3903</v>
       </c>
-      <c r="F94" s="310"/>
-      <c r="G94" s="310"/>
-      <c r="H94" s="310" t="s">
+      <c r="F94" s="270"/>
+      <c r="G94" s="270"/>
+      <c r="H94" s="270" t="s">
         <v>3904</v>
       </c>
-      <c r="I94" s="310"/>
-      <c r="J94" s="310"/>
-      <c r="K94" s="310" t="s">
+      <c r="I94" s="270"/>
+      <c r="J94" s="270"/>
+      <c r="K94" s="270" t="s">
         <v>3905</v>
       </c>
-      <c r="L94" s="310"/>
-      <c r="M94" s="310"/>
-      <c r="N94" s="310" t="s">
+      <c r="L94" s="270"/>
+      <c r="M94" s="270"/>
+      <c r="N94" s="270" t="s">
         <v>3902</v>
       </c>
-      <c r="O94" s="310"/>
-      <c r="P94" s="310"/>
-      <c r="Q94" s="310" t="s">
+      <c r="O94" s="270"/>
+      <c r="P94" s="270"/>
+      <c r="Q94" s="270" t="s">
         <v>215</v>
       </c>
-      <c r="R94" s="310"/>
-      <c r="S94" s="311"/>
+      <c r="R94" s="270"/>
+      <c r="S94" s="271"/>
     </row>
     <row r="95" spans="2:19" ht="33" customHeight="1">
-      <c r="B95" s="142"/>
-      <c r="C95" s="142"/>
-      <c r="D95" s="142"/>
-      <c r="E95" s="142"/>
-      <c r="F95" s="142"/>
-      <c r="G95" s="142"/>
-      <c r="H95" s="142"/>
-      <c r="I95" s="142"/>
-      <c r="J95" s="142"/>
-      <c r="K95" s="142"/>
-      <c r="L95" s="142"/>
-      <c r="M95" s="142"/>
-      <c r="N95" s="142"/>
-      <c r="O95" s="142"/>
-      <c r="P95" s="142"/>
-      <c r="Q95" s="143"/>
-      <c r="R95" s="152"/>
-      <c r="S95" s="153"/>
+      <c r="B95" s="150"/>
+      <c r="C95" s="150"/>
+      <c r="D95" s="150"/>
+      <c r="E95" s="150"/>
+      <c r="F95" s="150"/>
+      <c r="G95" s="150"/>
+      <c r="H95" s="150"/>
+      <c r="I95" s="150"/>
+      <c r="J95" s="150"/>
+      <c r="K95" s="150"/>
+      <c r="L95" s="150"/>
+      <c r="M95" s="150"/>
+      <c r="N95" s="150"/>
+      <c r="O95" s="150"/>
+      <c r="P95" s="150"/>
+      <c r="Q95" s="266"/>
+      <c r="R95" s="253"/>
+      <c r="S95" s="254"/>
     </row>
     <row r="96" spans="2:19" ht="33" customHeight="1">
-      <c r="B96" s="142"/>
-      <c r="C96" s="142"/>
-      <c r="D96" s="142"/>
-      <c r="E96" s="142"/>
-      <c r="F96" s="142"/>
-      <c r="G96" s="142"/>
-      <c r="H96" s="142"/>
-      <c r="I96" s="142"/>
-      <c r="J96" s="142"/>
-      <c r="K96" s="142"/>
-      <c r="L96" s="142"/>
-      <c r="M96" s="142"/>
-      <c r="N96" s="142"/>
-      <c r="O96" s="142"/>
-      <c r="P96" s="142"/>
-      <c r="Q96" s="154"/>
-      <c r="R96" s="155"/>
-      <c r="S96" s="156"/>
+      <c r="B96" s="150"/>
+      <c r="C96" s="150"/>
+      <c r="D96" s="150"/>
+      <c r="E96" s="150"/>
+      <c r="F96" s="150"/>
+      <c r="G96" s="150"/>
+      <c r="H96" s="150"/>
+      <c r="I96" s="150"/>
+      <c r="J96" s="150"/>
+      <c r="K96" s="150"/>
+      <c r="L96" s="150"/>
+      <c r="M96" s="150"/>
+      <c r="N96" s="150"/>
+      <c r="O96" s="150"/>
+      <c r="P96" s="150"/>
+      <c r="Q96" s="267"/>
+      <c r="R96" s="268"/>
+      <c r="S96" s="269"/>
     </row>
     <row r="97" spans="2:19" ht="33" customHeight="1">
-      <c r="B97" s="142"/>
-      <c r="C97" s="142"/>
-      <c r="D97" s="142"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="142"/>
-      <c r="G97" s="142"/>
-      <c r="H97" s="142"/>
-      <c r="I97" s="142"/>
-      <c r="J97" s="142"/>
-      <c r="K97" s="142"/>
-      <c r="L97" s="142"/>
-      <c r="M97" s="142"/>
-      <c r="N97" s="142"/>
-      <c r="O97" s="142"/>
-      <c r="P97" s="142"/>
-      <c r="Q97" s="143"/>
-      <c r="R97" s="152"/>
-      <c r="S97" s="153"/>
+      <c r="B97" s="150"/>
+      <c r="C97" s="150"/>
+      <c r="D97" s="150"/>
+      <c r="E97" s="150"/>
+      <c r="F97" s="150"/>
+      <c r="G97" s="150"/>
+      <c r="H97" s="150"/>
+      <c r="I97" s="150"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="150"/>
+      <c r="L97" s="150"/>
+      <c r="M97" s="150"/>
+      <c r="N97" s="150"/>
+      <c r="O97" s="150"/>
+      <c r="P97" s="150"/>
+      <c r="Q97" s="266"/>
+      <c r="R97" s="253"/>
+      <c r="S97" s="254"/>
     </row>
     <row r="98" spans="2:19" ht="33" customHeight="1">
-      <c r="B98" s="142"/>
-      <c r="C98" s="142"/>
-      <c r="D98" s="142"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="142"/>
-      <c r="H98" s="142"/>
-      <c r="I98" s="142"/>
-      <c r="J98" s="142"/>
-      <c r="K98" s="142"/>
-      <c r="L98" s="142"/>
-      <c r="M98" s="142"/>
-      <c r="N98" s="142"/>
-      <c r="O98" s="142"/>
-      <c r="P98" s="142"/>
-      <c r="Q98" s="154"/>
-      <c r="R98" s="155"/>
-      <c r="S98" s="156"/>
+      <c r="B98" s="150"/>
+      <c r="C98" s="150"/>
+      <c r="D98" s="150"/>
+      <c r="E98" s="150"/>
+      <c r="F98" s="150"/>
+      <c r="G98" s="150"/>
+      <c r="H98" s="150"/>
+      <c r="I98" s="150"/>
+      <c r="J98" s="150"/>
+      <c r="K98" s="150"/>
+      <c r="L98" s="150"/>
+      <c r="M98" s="150"/>
+      <c r="N98" s="150"/>
+      <c r="O98" s="150"/>
+      <c r="P98" s="150"/>
+      <c r="Q98" s="267"/>
+      <c r="R98" s="268"/>
+      <c r="S98" s="269"/>
     </row>
     <row r="99" spans="2:19" ht="33" customHeight="1">
-      <c r="B99" s="142"/>
-      <c r="C99" s="142"/>
-      <c r="D99" s="142"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="142"/>
-      <c r="G99" s="142"/>
-      <c r="H99" s="142"/>
-      <c r="I99" s="142"/>
-      <c r="J99" s="142"/>
-      <c r="K99" s="142"/>
-      <c r="L99" s="142"/>
-      <c r="M99" s="142"/>
-      <c r="N99" s="142"/>
-      <c r="O99" s="142"/>
-      <c r="P99" s="142"/>
-      <c r="Q99" s="143"/>
-      <c r="R99" s="152"/>
-      <c r="S99" s="153"/>
+      <c r="B99" s="150"/>
+      <c r="C99" s="150"/>
+      <c r="D99" s="150"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="150"/>
+      <c r="G99" s="150"/>
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="150"/>
+      <c r="K99" s="150"/>
+      <c r="L99" s="150"/>
+      <c r="M99" s="150"/>
+      <c r="N99" s="150"/>
+      <c r="O99" s="150"/>
+      <c r="P99" s="150"/>
+      <c r="Q99" s="266"/>
+      <c r="R99" s="253"/>
+      <c r="S99" s="254"/>
     </row>
     <row r="100" spans="2:19" ht="33" customHeight="1">
-      <c r="B100" s="142"/>
-      <c r="C100" s="142"/>
-      <c r="D100" s="142"/>
-      <c r="E100" s="142"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="142"/>
-      <c r="H100" s="142"/>
-      <c r="I100" s="142"/>
-      <c r="J100" s="142"/>
-      <c r="K100" s="142"/>
-      <c r="L100" s="142"/>
-      <c r="M100" s="142"/>
-      <c r="N100" s="142"/>
-      <c r="O100" s="142"/>
-      <c r="P100" s="142"/>
-      <c r="Q100" s="154"/>
-      <c r="R100" s="155"/>
-      <c r="S100" s="156"/>
+      <c r="B100" s="150"/>
+      <c r="C100" s="150"/>
+      <c r="D100" s="150"/>
+      <c r="E100" s="150"/>
+      <c r="F100" s="150"/>
+      <c r="G100" s="150"/>
+      <c r="H100" s="150"/>
+      <c r="I100" s="150"/>
+      <c r="J100" s="150"/>
+      <c r="K100" s="150"/>
+      <c r="L100" s="150"/>
+      <c r="M100" s="150"/>
+      <c r="N100" s="150"/>
+      <c r="O100" s="150"/>
+      <c r="P100" s="150"/>
+      <c r="Q100" s="267"/>
+      <c r="R100" s="268"/>
+      <c r="S100" s="269"/>
     </row>
     <row r="101" spans="2:19" ht="33" customHeight="1">
-      <c r="B101" s="142"/>
-      <c r="C101" s="142"/>
-      <c r="D101" s="142"/>
-      <c r="E101" s="142"/>
-      <c r="F101" s="142"/>
-      <c r="G101" s="142"/>
-      <c r="H101" s="142"/>
-      <c r="I101" s="142"/>
-      <c r="J101" s="142"/>
-      <c r="K101" s="142"/>
-      <c r="L101" s="142"/>
-      <c r="M101" s="142"/>
-      <c r="N101" s="142"/>
-      <c r="O101" s="142"/>
-      <c r="P101" s="142"/>
-      <c r="Q101" s="143"/>
-      <c r="R101" s="152"/>
-      <c r="S101" s="153"/>
+      <c r="B101" s="150"/>
+      <c r="C101" s="150"/>
+      <c r="D101" s="150"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="150"/>
+      <c r="G101" s="150"/>
+      <c r="H101" s="150"/>
+      <c r="I101" s="150"/>
+      <c r="J101" s="150"/>
+      <c r="K101" s="150"/>
+      <c r="L101" s="150"/>
+      <c r="M101" s="150"/>
+      <c r="N101" s="150"/>
+      <c r="O101" s="150"/>
+      <c r="P101" s="150"/>
+      <c r="Q101" s="266"/>
+      <c r="R101" s="253"/>
+      <c r="S101" s="254"/>
     </row>
     <row r="102" spans="2:19" ht="33" customHeight="1">
-      <c r="B102" s="142"/>
-      <c r="C102" s="142"/>
-      <c r="D102" s="142"/>
-      <c r="E102" s="142"/>
-      <c r="F102" s="142"/>
-      <c r="G102" s="142"/>
-      <c r="H102" s="142"/>
-      <c r="I102" s="142"/>
-      <c r="J102" s="142"/>
-      <c r="K102" s="142"/>
-      <c r="L102" s="142"/>
-      <c r="M102" s="142"/>
-      <c r="N102" s="142"/>
-      <c r="O102" s="142"/>
-      <c r="P102" s="142"/>
-      <c r="Q102" s="154"/>
-      <c r="R102" s="155"/>
-      <c r="S102" s="156"/>
+      <c r="B102" s="150"/>
+      <c r="C102" s="150"/>
+      <c r="D102" s="150"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="150"/>
+      <c r="G102" s="150"/>
+      <c r="H102" s="150"/>
+      <c r="I102" s="150"/>
+      <c r="J102" s="150"/>
+      <c r="K102" s="150"/>
+      <c r="L102" s="150"/>
+      <c r="M102" s="150"/>
+      <c r="N102" s="150"/>
+      <c r="O102" s="150"/>
+      <c r="P102" s="150"/>
+      <c r="Q102" s="267"/>
+      <c r="R102" s="268"/>
+      <c r="S102" s="269"/>
     </row>
     <row r="103" spans="2:19" ht="33" customHeight="1">
-      <c r="B103" s="142"/>
-      <c r="C103" s="142"/>
-      <c r="D103" s="142"/>
-      <c r="E103" s="142"/>
-      <c r="F103" s="142"/>
-      <c r="G103" s="142"/>
-      <c r="H103" s="142"/>
-      <c r="I103" s="142"/>
-      <c r="J103" s="142"/>
-      <c r="K103" s="142"/>
-      <c r="L103" s="142"/>
-      <c r="M103" s="142"/>
-      <c r="N103" s="142"/>
-      <c r="O103" s="142"/>
-      <c r="P103" s="142"/>
-      <c r="Q103" s="143"/>
-      <c r="R103" s="152"/>
-      <c r="S103" s="153"/>
+      <c r="B103" s="150"/>
+      <c r="C103" s="150"/>
+      <c r="D103" s="150"/>
+      <c r="E103" s="150"/>
+      <c r="F103" s="150"/>
+      <c r="G103" s="150"/>
+      <c r="H103" s="150"/>
+      <c r="I103" s="150"/>
+      <c r="J103" s="150"/>
+      <c r="K103" s="150"/>
+      <c r="L103" s="150"/>
+      <c r="M103" s="150"/>
+      <c r="N103" s="150"/>
+      <c r="O103" s="150"/>
+      <c r="P103" s="150"/>
+      <c r="Q103" s="266"/>
+      <c r="R103" s="253"/>
+      <c r="S103" s="254"/>
     </row>
     <row r="104" spans="2:19" ht="33" customHeight="1">
-      <c r="B104" s="142"/>
-      <c r="C104" s="142"/>
-      <c r="D104" s="142"/>
-      <c r="E104" s="142"/>
-      <c r="F104" s="142"/>
-      <c r="G104" s="142"/>
-      <c r="H104" s="142"/>
-      <c r="I104" s="142"/>
-      <c r="J104" s="142"/>
-      <c r="K104" s="142"/>
-      <c r="L104" s="142"/>
-      <c r="M104" s="142"/>
-      <c r="N104" s="142"/>
-      <c r="O104" s="142"/>
-      <c r="P104" s="142"/>
-      <c r="Q104" s="154"/>
-      <c r="R104" s="155"/>
-      <c r="S104" s="156"/>
+      <c r="B104" s="150"/>
+      <c r="C104" s="150"/>
+      <c r="D104" s="150"/>
+      <c r="E104" s="150"/>
+      <c r="F104" s="150"/>
+      <c r="G104" s="150"/>
+      <c r="H104" s="150"/>
+      <c r="I104" s="150"/>
+      <c r="J104" s="150"/>
+      <c r="K104" s="150"/>
+      <c r="L104" s="150"/>
+      <c r="M104" s="150"/>
+      <c r="N104" s="150"/>
+      <c r="O104" s="150"/>
+      <c r="P104" s="150"/>
+      <c r="Q104" s="267"/>
+      <c r="R104" s="268"/>
+      <c r="S104" s="269"/>
     </row>
     <row r="105" spans="2:19" ht="33" customHeight="1">
-      <c r="B105" s="177" t="s">
+      <c r="B105" s="215" t="s">
         <v>4036</v>
       </c>
-      <c r="C105" s="178"/>
-      <c r="D105" s="178"/>
-      <c r="E105" s="178"/>
-      <c r="F105" s="178"/>
-      <c r="G105" s="178"/>
-      <c r="H105" s="178"/>
-      <c r="I105" s="178"/>
-      <c r="J105" s="178"/>
-      <c r="K105" s="178"/>
-      <c r="L105" s="178"/>
-      <c r="M105" s="178"/>
-      <c r="N105" s="178"/>
-      <c r="O105" s="178"/>
-      <c r="P105" s="178"/>
-      <c r="Q105" s="178"/>
-      <c r="R105" s="178"/>
-      <c r="S105" s="179"/>
+      <c r="C105" s="216"/>
+      <c r="D105" s="216"/>
+      <c r="E105" s="216"/>
+      <c r="F105" s="216"/>
+      <c r="G105" s="216"/>
+      <c r="H105" s="216"/>
+      <c r="I105" s="216"/>
+      <c r="J105" s="216"/>
+      <c r="K105" s="216"/>
+      <c r="L105" s="216"/>
+      <c r="M105" s="216"/>
+      <c r="N105" s="216"/>
+      <c r="O105" s="216"/>
+      <c r="P105" s="216"/>
+      <c r="Q105" s="216"/>
+      <c r="R105" s="216"/>
+      <c r="S105" s="217"/>
     </row>
     <row r="106" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B106" s="323" t="s">
+      <c r="B106" s="260" t="s">
         <v>3899</v>
       </c>
-      <c r="C106" s="324"/>
-      <c r="D106" s="199" t="s">
+      <c r="C106" s="261"/>
+      <c r="D106" s="151" t="s">
         <v>3895</v>
       </c>
-      <c r="E106" s="199"/>
-      <c r="F106" s="199"/>
+      <c r="E106" s="151"/>
+      <c r="F106" s="151"/>
       <c r="G106" s="45" t="s">
         <v>3901</v>
       </c>
-      <c r="H106" s="199" t="s">
+      <c r="H106" s="151" t="s">
         <v>3896</v>
       </c>
-      <c r="I106" s="199"/>
-      <c r="J106" s="199"/>
+      <c r="I106" s="151"/>
+      <c r="J106" s="151"/>
       <c r="K106" s="45" t="s">
         <v>3901</v>
       </c>
-      <c r="L106" s="199" t="s">
+      <c r="L106" s="151" t="s">
         <v>3897</v>
       </c>
-      <c r="M106" s="199"/>
-      <c r="N106" s="199"/>
+      <c r="M106" s="151"/>
+      <c r="N106" s="151"/>
       <c r="O106" s="86" t="s">
         <v>3901</v>
       </c>
-      <c r="P106" s="199" t="s">
+      <c r="P106" s="151" t="s">
         <v>3898</v>
       </c>
-      <c r="Q106" s="199"/>
-      <c r="R106" s="199"/>
+      <c r="Q106" s="151"/>
+      <c r="R106" s="151"/>
       <c r="S106" s="76" t="s">
         <v>3901</v>
       </c>
     </row>
     <row r="107" spans="2:19" ht="33" customHeight="1">
-      <c r="B107" s="325"/>
-      <c r="C107" s="326"/>
-      <c r="D107" s="199" t="s">
+      <c r="B107" s="262"/>
+      <c r="C107" s="263"/>
+      <c r="D107" s="151" t="s">
         <v>4037</v>
       </c>
-      <c r="E107" s="199"/>
-      <c r="F107" s="199"/>
+      <c r="E107" s="151"/>
+      <c r="F107" s="151"/>
       <c r="G107" s="45"/>
-      <c r="H107" s="199" t="s">
+      <c r="H107" s="151" t="s">
         <v>4038</v>
       </c>
-      <c r="I107" s="199"/>
-      <c r="J107" s="199"/>
+      <c r="I107" s="151"/>
+      <c r="J107" s="151"/>
       <c r="K107" s="45"/>
-      <c r="L107" s="199" t="s">
+      <c r="L107" s="151" t="s">
         <v>4039</v>
       </c>
-      <c r="M107" s="199"/>
-      <c r="N107" s="199"/>
+      <c r="M107" s="151"/>
+      <c r="N107" s="151"/>
       <c r="O107" s="45"/>
-      <c r="P107" s="199" t="s">
+      <c r="P107" s="151" t="s">
         <v>4040</v>
       </c>
-      <c r="Q107" s="199"/>
-      <c r="R107" s="199"/>
+      <c r="Q107" s="151"/>
+      <c r="R107" s="151"/>
       <c r="S107" s="76"/>
     </row>
     <row r="108" spans="2:19" ht="33" customHeight="1">
-      <c r="B108" s="162" t="s">
+      <c r="B108" s="374" t="s">
         <v>4048</v>
       </c>
-      <c r="C108" s="163"/>
-      <c r="D108" s="163"/>
-      <c r="E108" s="163"/>
-      <c r="F108" s="163"/>
-      <c r="G108" s="163"/>
-      <c r="H108" s="163"/>
-      <c r="I108" s="163"/>
-      <c r="J108" s="163"/>
-      <c r="K108" s="163"/>
-      <c r="L108" s="163"/>
-      <c r="M108" s="163"/>
-      <c r="N108" s="163"/>
-      <c r="O108" s="163"/>
-      <c r="P108" s="163"/>
-      <c r="Q108" s="163"/>
-      <c r="R108" s="163"/>
-      <c r="S108" s="164"/>
+      <c r="C108" s="375"/>
+      <c r="D108" s="375"/>
+      <c r="E108" s="375"/>
+      <c r="F108" s="375"/>
+      <c r="G108" s="375"/>
+      <c r="H108" s="375"/>
+      <c r="I108" s="375"/>
+      <c r="J108" s="375"/>
+      <c r="K108" s="375"/>
+      <c r="L108" s="375"/>
+      <c r="M108" s="375"/>
+      <c r="N108" s="375"/>
+      <c r="O108" s="375"/>
+      <c r="P108" s="375"/>
+      <c r="Q108" s="375"/>
+      <c r="R108" s="375"/>
+      <c r="S108" s="376"/>
     </row>
     <row r="109" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B109" s="157" t="s">
+      <c r="B109" s="377" t="s">
         <v>4049</v>
       </c>
-      <c r="C109" s="158"/>
-      <c r="D109" s="158"/>
-      <c r="E109" s="158"/>
-      <c r="F109" s="159"/>
+      <c r="C109" s="288"/>
+      <c r="D109" s="288"/>
+      <c r="E109" s="288"/>
+      <c r="F109" s="283"/>
       <c r="G109" s="45"/>
-      <c r="H109" s="143" t="s">
+      <c r="H109" s="266" t="s">
         <v>4054</v>
       </c>
-      <c r="I109" s="144"/>
-      <c r="J109" s="144"/>
-      <c r="K109" s="144"/>
-      <c r="L109" s="144"/>
-      <c r="M109" s="144"/>
-      <c r="N109" s="144"/>
-      <c r="O109" s="144"/>
-      <c r="P109" s="144"/>
-      <c r="Q109" s="144"/>
-      <c r="R109" s="144"/>
-      <c r="S109" s="145"/>
+      <c r="I109" s="390"/>
+      <c r="J109" s="390"/>
+      <c r="K109" s="390"/>
+      <c r="L109" s="390"/>
+      <c r="M109" s="390"/>
+      <c r="N109" s="390"/>
+      <c r="O109" s="390"/>
+      <c r="P109" s="390"/>
+      <c r="Q109" s="390"/>
+      <c r="R109" s="390"/>
+      <c r="S109" s="391"/>
     </row>
     <row r="110" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B110" s="157" t="s">
+      <c r="B110" s="377" t="s">
         <v>4050</v>
       </c>
-      <c r="C110" s="158"/>
-      <c r="D110" s="158"/>
-      <c r="E110" s="158"/>
-      <c r="F110" s="159"/>
+      <c r="C110" s="288"/>
+      <c r="D110" s="288"/>
+      <c r="E110" s="288"/>
+      <c r="F110" s="283"/>
       <c r="G110" s="45"/>
-      <c r="H110" s="146"/>
-      <c r="I110" s="147"/>
-      <c r="J110" s="147"/>
-      <c r="K110" s="147"/>
-      <c r="L110" s="147"/>
-      <c r="M110" s="147"/>
-      <c r="N110" s="147"/>
-      <c r="O110" s="147"/>
-      <c r="P110" s="147"/>
-      <c r="Q110" s="147"/>
-      <c r="R110" s="147"/>
-      <c r="S110" s="148"/>
+      <c r="H110" s="392"/>
+      <c r="I110" s="393"/>
+      <c r="J110" s="393"/>
+      <c r="K110" s="393"/>
+      <c r="L110" s="393"/>
+      <c r="M110" s="393"/>
+      <c r="N110" s="393"/>
+      <c r="O110" s="393"/>
+      <c r="P110" s="393"/>
+      <c r="Q110" s="393"/>
+      <c r="R110" s="393"/>
+      <c r="S110" s="394"/>
     </row>
     <row r="111" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B111" s="157" t="s">
+      <c r="B111" s="377" t="s">
         <v>4051</v>
       </c>
-      <c r="C111" s="158"/>
-      <c r="D111" s="158"/>
-      <c r="E111" s="158"/>
-      <c r="F111" s="159"/>
+      <c r="C111" s="288"/>
+      <c r="D111" s="288"/>
+      <c r="E111" s="288"/>
+      <c r="F111" s="283"/>
       <c r="G111" s="45"/>
-      <c r="H111" s="146"/>
-      <c r="I111" s="147"/>
-      <c r="J111" s="147"/>
-      <c r="K111" s="147"/>
-      <c r="L111" s="147"/>
-      <c r="M111" s="147"/>
-      <c r="N111" s="147"/>
-      <c r="O111" s="147"/>
-      <c r="P111" s="147"/>
-      <c r="Q111" s="147"/>
-      <c r="R111" s="147"/>
-      <c r="S111" s="148"/>
+      <c r="H111" s="392"/>
+      <c r="I111" s="393"/>
+      <c r="J111" s="393"/>
+      <c r="K111" s="393"/>
+      <c r="L111" s="393"/>
+      <c r="M111" s="393"/>
+      <c r="N111" s="393"/>
+      <c r="O111" s="393"/>
+      <c r="P111" s="393"/>
+      <c r="Q111" s="393"/>
+      <c r="R111" s="393"/>
+      <c r="S111" s="394"/>
     </row>
     <row r="112" spans="2:19" ht="26.25" customHeight="1">
-      <c r="B112" s="157" t="s">
+      <c r="B112" s="377" t="s">
         <v>4052</v>
       </c>
-      <c r="C112" s="158"/>
-      <c r="D112" s="158"/>
-      <c r="E112" s="158"/>
-      <c r="F112" s="159"/>
+      <c r="C112" s="288"/>
+      <c r="D112" s="288"/>
+      <c r="E112" s="288"/>
+      <c r="F112" s="283"/>
       <c r="G112" s="45"/>
-      <c r="H112" s="146"/>
-      <c r="I112" s="147"/>
-      <c r="J112" s="147"/>
-      <c r="K112" s="147"/>
-      <c r="L112" s="147"/>
-      <c r="M112" s="147"/>
-      <c r="N112" s="147"/>
-      <c r="O112" s="147"/>
-      <c r="P112" s="147"/>
-      <c r="Q112" s="147"/>
-      <c r="R112" s="147"/>
-      <c r="S112" s="148"/>
+      <c r="H112" s="392"/>
+      <c r="I112" s="393"/>
+      <c r="J112" s="393"/>
+      <c r="K112" s="393"/>
+      <c r="L112" s="393"/>
+      <c r="M112" s="393"/>
+      <c r="N112" s="393"/>
+      <c r="O112" s="393"/>
+      <c r="P112" s="393"/>
+      <c r="Q112" s="393"/>
+      <c r="R112" s="393"/>
+      <c r="S112" s="394"/>
     </row>
     <row r="113" spans="2:19" s="138" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B113" s="157" t="s">
+      <c r="B113" s="377" t="s">
         <v>4053</v>
       </c>
-      <c r="C113" s="158"/>
-      <c r="D113" s="158"/>
-      <c r="E113" s="158"/>
-      <c r="F113" s="159"/>
+      <c r="C113" s="288"/>
+      <c r="D113" s="288"/>
+      <c r="E113" s="288"/>
+      <c r="F113" s="283"/>
       <c r="G113" s="139"/>
-      <c r="H113" s="146"/>
-      <c r="I113" s="147"/>
-      <c r="J113" s="147"/>
-      <c r="K113" s="147"/>
-      <c r="L113" s="147"/>
-      <c r="M113" s="147"/>
-      <c r="N113" s="147"/>
-      <c r="O113" s="147"/>
-      <c r="P113" s="147"/>
-      <c r="Q113" s="147"/>
-      <c r="R113" s="147"/>
-      <c r="S113" s="148"/>
+      <c r="H113" s="392"/>
+      <c r="I113" s="393"/>
+      <c r="J113" s="393"/>
+      <c r="K113" s="393"/>
+      <c r="L113" s="393"/>
+      <c r="M113" s="393"/>
+      <c r="N113" s="393"/>
+      <c r="O113" s="393"/>
+      <c r="P113" s="393"/>
+      <c r="Q113" s="393"/>
+      <c r="R113" s="393"/>
+      <c r="S113" s="394"/>
     </row>
     <row r="114" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B114" s="165" t="s">
+      <c r="B114" s="378" t="s">
         <v>3837</v>
       </c>
-      <c r="C114" s="166"/>
-      <c r="D114" s="166"/>
-      <c r="E114" s="166"/>
-      <c r="F114" s="167"/>
+      <c r="C114" s="379"/>
+      <c r="D114" s="379"/>
+      <c r="E114" s="379"/>
+      <c r="F114" s="380"/>
       <c r="G114" s="77"/>
-      <c r="H114" s="149"/>
-      <c r="I114" s="150"/>
-      <c r="J114" s="150"/>
-      <c r="K114" s="150"/>
-      <c r="L114" s="150"/>
-      <c r="M114" s="150"/>
-      <c r="N114" s="150"/>
-      <c r="O114" s="150"/>
-      <c r="P114" s="150"/>
-      <c r="Q114" s="150"/>
-      <c r="R114" s="150"/>
-      <c r="S114" s="151"/>
+      <c r="H114" s="395"/>
+      <c r="I114" s="396"/>
+      <c r="J114" s="396"/>
+      <c r="K114" s="396"/>
+      <c r="L114" s="396"/>
+      <c r="M114" s="396"/>
+      <c r="N114" s="396"/>
+      <c r="O114" s="396"/>
+      <c r="P114" s="396"/>
+      <c r="Q114" s="396"/>
+      <c r="R114" s="396"/>
+      <c r="S114" s="397"/>
     </row>
   </sheetData>
   <mergeCells count="304">
+    <mergeCell ref="K101:M102"/>
+    <mergeCell ref="N101:P102"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:G104"/>
+    <mergeCell ref="H103:J104"/>
+    <mergeCell ref="K103:M104"/>
+    <mergeCell ref="N103:P104"/>
+    <mergeCell ref="H109:S114"/>
+    <mergeCell ref="Q103:S104"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B108:S108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="H23:S23"/>
+    <mergeCell ref="B55:S55"/>
+    <mergeCell ref="B61:S61"/>
+    <mergeCell ref="B37:S37"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="B47:S47"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B8:S8"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:S16"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K17:S17"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="D4:K5"/>
+    <mergeCell ref="L2:O3"/>
+    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B42:S42"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B40:S40"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="O43:R45"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="B41:S41"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="G76:M78"/>
+    <mergeCell ref="B69:M69"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="Q101:S102"/>
+    <mergeCell ref="Q99:S100"/>
+    <mergeCell ref="Q97:S98"/>
+    <mergeCell ref="Q95:S96"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="B105:S105"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="E97:G98"/>
+    <mergeCell ref="H97:J98"/>
+    <mergeCell ref="K97:M98"/>
+    <mergeCell ref="N97:P98"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="E99:G100"/>
+    <mergeCell ref="H99:J100"/>
+    <mergeCell ref="K99:M100"/>
+    <mergeCell ref="N99:P100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:G102"/>
+    <mergeCell ref="H101:J102"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="D73:F75"/>
+    <mergeCell ref="D70:F72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="B91:S91"/>
+    <mergeCell ref="D92:S93"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:G96"/>
+    <mergeCell ref="H95:J96"/>
+    <mergeCell ref="K95:M96"/>
+    <mergeCell ref="N95:P96"/>
+    <mergeCell ref="B97:D98"/>
+    <mergeCell ref="P106:R106"/>
+    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="P107:R107"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="B67:S67"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="G85:M87"/>
+    <mergeCell ref="G82:M84"/>
+    <mergeCell ref="G79:M81"/>
+    <mergeCell ref="N68:S69"/>
+    <mergeCell ref="N70:S90"/>
+    <mergeCell ref="B89:M90"/>
+    <mergeCell ref="B88:M88"/>
+    <mergeCell ref="D85:F87"/>
+    <mergeCell ref="D82:F84"/>
+    <mergeCell ref="D79:F81"/>
+    <mergeCell ref="B68:M68"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="D76:F78"/>
+    <mergeCell ref="G73:M75"/>
+    <mergeCell ref="G70:M72"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="B24:S27"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="B28:S28"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="K58:N58"/>
     <mergeCell ref="G58:J58"/>
     <mergeCell ref="C58:F58"/>
@@ -55794,286 +56074,6 @@
     <mergeCell ref="O49:R49"/>
     <mergeCell ref="G45:K45"/>
     <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="B24:S27"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="B28:S28"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="B67:S67"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="G85:M87"/>
-    <mergeCell ref="G82:M84"/>
-    <mergeCell ref="G79:M81"/>
-    <mergeCell ref="N68:S69"/>
-    <mergeCell ref="N70:S90"/>
-    <mergeCell ref="B89:M90"/>
-    <mergeCell ref="B88:M88"/>
-    <mergeCell ref="D85:F87"/>
-    <mergeCell ref="D82:F84"/>
-    <mergeCell ref="D79:F81"/>
-    <mergeCell ref="B68:M68"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="D76:F78"/>
-    <mergeCell ref="G73:M75"/>
-    <mergeCell ref="G70:M72"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="B91:S91"/>
-    <mergeCell ref="D92:S93"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:G96"/>
-    <mergeCell ref="H95:J96"/>
-    <mergeCell ref="K95:M96"/>
-    <mergeCell ref="N95:P96"/>
-    <mergeCell ref="B97:D98"/>
-    <mergeCell ref="P106:R106"/>
-    <mergeCell ref="B106:C107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="P107:R107"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="D73:F75"/>
-    <mergeCell ref="D70:F72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="Q101:S102"/>
-    <mergeCell ref="Q99:S100"/>
-    <mergeCell ref="Q97:S98"/>
-    <mergeCell ref="Q95:S96"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="B105:S105"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="E97:G98"/>
-    <mergeCell ref="H97:J98"/>
-    <mergeCell ref="K97:M98"/>
-    <mergeCell ref="N97:P98"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="E99:G100"/>
-    <mergeCell ref="H99:J100"/>
-    <mergeCell ref="K99:M100"/>
-    <mergeCell ref="N99:P100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:G102"/>
-    <mergeCell ref="H101:J102"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="G76:M78"/>
-    <mergeCell ref="B69:M69"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="B41:S41"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B42:S42"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B40:S40"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="O43:R45"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="P4:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="D4:K5"/>
-    <mergeCell ref="L2:O3"/>
-    <mergeCell ref="L4:O5"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B8:S8"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:S16"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K17:S17"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="B47:S47"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="P20:Q21"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="O33:S33"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B108:S108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="H23:S23"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="B61:S61"/>
-    <mergeCell ref="B37:S37"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="K101:M102"/>
-    <mergeCell ref="N101:P102"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:G104"/>
-    <mergeCell ref="H103:J104"/>
-    <mergeCell ref="K103:M104"/>
-    <mergeCell ref="N103:P104"/>
-    <mergeCell ref="H109:S114"/>
-    <mergeCell ref="Q103:S104"/>
-    <mergeCell ref="B113:F113"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="_x000a_" sqref="E9:G9" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
@@ -56870,22 +56870,22 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1"/>
     <row r="2" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="256"/>
-      <c r="C2" s="411"/>
-      <c r="D2" s="415" t="s">
+      <c r="B2" s="324"/>
+      <c r="C2" s="433"/>
+      <c r="D2" s="437" t="s">
         <v>3914</v>
       </c>
-      <c r="E2" s="416"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="417"/>
-      <c r="O2" s="428" t="s">
+      <c r="E2" s="438"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="316"/>
+      <c r="N2" s="439"/>
+      <c r="O2" s="450" t="s">
         <v>4033</v>
       </c>
       <c r="P2" s="42" t="s">
@@ -56896,85 +56896,85 @@
       <c r="S2" s="59"/>
     </row>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="258"/>
-      <c r="C3" s="412"/>
-      <c r="D3" s="418"/>
-      <c r="E3" s="419"/>
-      <c r="F3" s="420"/>
-      <c r="G3" s="420"/>
-      <c r="H3" s="420"/>
-      <c r="I3" s="420"/>
-      <c r="J3" s="420"/>
-      <c r="K3" s="420"/>
-      <c r="L3" s="420"/>
-      <c r="M3" s="420"/>
-      <c r="N3" s="421"/>
-      <c r="O3" s="429"/>
+      <c r="B3" s="326"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="441"/>
+      <c r="F3" s="442"/>
+      <c r="G3" s="442"/>
+      <c r="H3" s="442"/>
+      <c r="I3" s="442"/>
+      <c r="J3" s="442"/>
+      <c r="K3" s="442"/>
+      <c r="L3" s="442"/>
+      <c r="M3" s="442"/>
+      <c r="N3" s="443"/>
+      <c r="O3" s="451"/>
       <c r="P3" s="43" t="s">
         <v>4047</v>
       </c>
       <c r="S3" s="49"/>
     </row>
     <row r="4" spans="2:19" ht="24.9" customHeight="1">
-      <c r="B4" s="258"/>
-      <c r="C4" s="412"/>
-      <c r="D4" s="422" t="s">
+      <c r="B4" s="326"/>
+      <c r="C4" s="434"/>
+      <c r="D4" s="444" t="s">
         <v>3915</v>
       </c>
-      <c r="E4" s="423"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="424"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="424"/>
-      <c r="K4" s="424"/>
-      <c r="L4" s="424"/>
-      <c r="M4" s="424"/>
-      <c r="N4" s="424"/>
-      <c r="O4" s="430" t="s">
+      <c r="E4" s="445"/>
+      <c r="F4" s="446"/>
+      <c r="G4" s="446"/>
+      <c r="H4" s="446"/>
+      <c r="I4" s="446"/>
+      <c r="J4" s="446"/>
+      <c r="K4" s="446"/>
+      <c r="L4" s="446"/>
+      <c r="M4" s="446"/>
+      <c r="N4" s="446"/>
+      <c r="O4" s="452" t="s">
         <v>4074</v>
       </c>
-      <c r="P4" s="398" t="s">
+      <c r="P4" s="422" t="s">
         <v>4075</v>
       </c>
       <c r="S4" s="49"/>
     </row>
     <row r="5" spans="2:19" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B5" s="413"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="425"/>
-      <c r="E5" s="426"/>
-      <c r="F5" s="427"/>
-      <c r="G5" s="427"/>
-      <c r="H5" s="427"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="427"/>
-      <c r="K5" s="427"/>
-      <c r="L5" s="427"/>
-      <c r="M5" s="427"/>
-      <c r="N5" s="427"/>
-      <c r="O5" s="431"/>
-      <c r="P5" s="399"/>
+      <c r="B5" s="435"/>
+      <c r="C5" s="436"/>
+      <c r="D5" s="447"/>
+      <c r="E5" s="448"/>
+      <c r="F5" s="449"/>
+      <c r="G5" s="449"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="449"/>
+      <c r="J5" s="449"/>
+      <c r="K5" s="449"/>
+      <c r="L5" s="449"/>
+      <c r="M5" s="449"/>
+      <c r="N5" s="449"/>
+      <c r="O5" s="453"/>
+      <c r="P5" s="423"/>
       <c r="S5" s="49"/>
     </row>
     <row r="6" spans="2:19" ht="16.2" thickBot="1">
-      <c r="B6" s="400" t="s">
+      <c r="B6" s="404" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="401"/>
-      <c r="D6" s="401"/>
-      <c r="E6" s="401"/>
-      <c r="F6" s="401"/>
-      <c r="G6" s="401"/>
-      <c r="H6" s="401"/>
-      <c r="I6" s="401"/>
-      <c r="J6" s="401"/>
-      <c r="K6" s="401"/>
-      <c r="L6" s="401"/>
-      <c r="M6" s="402"/>
-      <c r="N6" s="408"/>
-      <c r="O6" s="409"/>
-      <c r="P6" s="410"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="405"/>
+      <c r="E6" s="405"/>
+      <c r="F6" s="405"/>
+      <c r="G6" s="405"/>
+      <c r="H6" s="405"/>
+      <c r="I6" s="405"/>
+      <c r="J6" s="405"/>
+      <c r="K6" s="405"/>
+      <c r="L6" s="405"/>
+      <c r="M6" s="424"/>
+      <c r="N6" s="430"/>
+      <c r="O6" s="431"/>
+      <c r="P6" s="432"/>
       <c r="S6" s="49"/>
     </row>
     <row r="7" spans="2:19" ht="47.4" thickBot="1">
@@ -57038,9 +57038,9 @@
       <c r="K8" s="32"/>
       <c r="L8" s="140"/>
       <c r="M8" s="140"/>
-      <c r="N8" s="405"/>
-      <c r="O8" s="403"/>
-      <c r="P8" s="406"/>
+      <c r="N8" s="427"/>
+      <c r="O8" s="425"/>
+      <c r="P8" s="428"/>
       <c r="S8" s="49"/>
     </row>
     <row r="9" spans="2:19" ht="56.25" customHeight="1">
@@ -57056,9 +57056,9 @@
       <c r="K9" s="32"/>
       <c r="L9" s="140"/>
       <c r="M9" s="140"/>
-      <c r="N9" s="404"/>
-      <c r="O9" s="404"/>
-      <c r="P9" s="407"/>
+      <c r="N9" s="426"/>
+      <c r="O9" s="426"/>
+      <c r="P9" s="429"/>
       <c r="S9" s="49"/>
     </row>
     <row r="10" spans="2:19" ht="73.5" customHeight="1">
@@ -57074,9 +57074,9 @@
       <c r="K10" s="32"/>
       <c r="L10" s="140"/>
       <c r="M10" s="140"/>
-      <c r="N10" s="404"/>
-      <c r="O10" s="404"/>
-      <c r="P10" s="407"/>
+      <c r="N10" s="426"/>
+      <c r="O10" s="426"/>
+      <c r="P10" s="429"/>
       <c r="S10" s="49"/>
     </row>
     <row r="11" spans="2:19" ht="57.75" customHeight="1">
@@ -57092,9 +57092,9 @@
       <c r="K11" s="32"/>
       <c r="L11" s="140"/>
       <c r="M11" s="140"/>
-      <c r="N11" s="404"/>
-      <c r="O11" s="404"/>
-      <c r="P11" s="407"/>
+      <c r="N11" s="426"/>
+      <c r="O11" s="426"/>
+      <c r="P11" s="429"/>
       <c r="S11" s="49"/>
     </row>
     <row r="12" spans="2:19" ht="57.75" customHeight="1">
@@ -57110,9 +57110,9 @@
       <c r="K12" s="32"/>
       <c r="L12" s="140"/>
       <c r="M12" s="140"/>
-      <c r="N12" s="404"/>
-      <c r="O12" s="404"/>
-      <c r="P12" s="407"/>
+      <c r="N12" s="426"/>
+      <c r="O12" s="426"/>
+      <c r="P12" s="429"/>
       <c r="S12" s="49"/>
     </row>
     <row r="13" spans="2:19" ht="45.75" customHeight="1">
@@ -57128,14 +57128,14 @@
       <c r="K13" s="32"/>
       <c r="L13" s="140"/>
       <c r="M13" s="140"/>
-      <c r="N13" s="404"/>
-      <c r="O13" s="404"/>
-      <c r="P13" s="407"/>
+      <c r="N13" s="426"/>
+      <c r="O13" s="426"/>
+      <c r="P13" s="429"/>
       <c r="S13" s="49"/>
     </row>
     <row r="14" spans="2:19" ht="33" customHeight="1">
-      <c r="B14" s="432"/>
-      <c r="C14" s="433"/>
+      <c r="B14" s="398"/>
+      <c r="C14" s="399"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -57152,159 +57152,159 @@
       <c r="S14" s="49"/>
     </row>
     <row r="15" spans="2:19" ht="15.6">
-      <c r="B15" s="400" t="s">
+      <c r="B15" s="404" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="401"/>
-      <c r="D15" s="401"/>
-      <c r="E15" s="401"/>
-      <c r="F15" s="401"/>
-      <c r="G15" s="401"/>
-      <c r="H15" s="401"/>
-      <c r="I15" s="401"/>
-      <c r="J15" s="401"/>
-      <c r="K15" s="401"/>
-      <c r="L15" s="401"/>
-      <c r="M15" s="401"/>
-      <c r="N15" s="401"/>
-      <c r="O15" s="401"/>
-      <c r="P15" s="438"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="405"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
+      <c r="G15" s="405"/>
+      <c r="H15" s="405"/>
+      <c r="I15" s="405"/>
+      <c r="J15" s="405"/>
+      <c r="K15" s="405"/>
+      <c r="L15" s="405"/>
+      <c r="M15" s="405"/>
+      <c r="N15" s="405"/>
+      <c r="O15" s="405"/>
+      <c r="P15" s="406"/>
       <c r="S15" s="49"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="400"/>
-      <c r="C16" s="401"/>
-      <c r="D16" s="401"/>
-      <c r="E16" s="401"/>
-      <c r="F16" s="401"/>
-      <c r="G16" s="401"/>
-      <c r="H16" s="401"/>
-      <c r="I16" s="401"/>
-      <c r="J16" s="401"/>
-      <c r="K16" s="401"/>
-      <c r="L16" s="401"/>
-      <c r="M16" s="401"/>
-      <c r="N16" s="401"/>
-      <c r="O16" s="401"/>
-      <c r="P16" s="438"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="405"/>
+      <c r="E16" s="405"/>
+      <c r="F16" s="405"/>
+      <c r="G16" s="405"/>
+      <c r="H16" s="405"/>
+      <c r="I16" s="405"/>
+      <c r="J16" s="405"/>
+      <c r="K16" s="405"/>
+      <c r="L16" s="405"/>
+      <c r="M16" s="405"/>
+      <c r="N16" s="405"/>
+      <c r="O16" s="405"/>
+      <c r="P16" s="406"/>
       <c r="S16" s="49"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="400"/>
-      <c r="C17" s="401"/>
-      <c r="D17" s="401"/>
-      <c r="E17" s="401"/>
-      <c r="F17" s="401"/>
-      <c r="G17" s="401"/>
-      <c r="H17" s="401"/>
-      <c r="I17" s="401"/>
-      <c r="J17" s="401"/>
-      <c r="K17" s="401"/>
-      <c r="L17" s="401"/>
-      <c r="M17" s="401"/>
-      <c r="N17" s="401"/>
-      <c r="O17" s="401"/>
-      <c r="P17" s="438"/>
+      <c r="B17" s="404"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="405"/>
+      <c r="E17" s="405"/>
+      <c r="F17" s="405"/>
+      <c r="G17" s="405"/>
+      <c r="H17" s="405"/>
+      <c r="I17" s="405"/>
+      <c r="J17" s="405"/>
+      <c r="K17" s="405"/>
+      <c r="L17" s="405"/>
+      <c r="M17" s="405"/>
+      <c r="N17" s="405"/>
+      <c r="O17" s="405"/>
+      <c r="P17" s="406"/>
       <c r="S17" s="49"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="400"/>
-      <c r="C18" s="401"/>
-      <c r="D18" s="401"/>
-      <c r="E18" s="401"/>
-      <c r="F18" s="401"/>
-      <c r="G18" s="401"/>
-      <c r="H18" s="401"/>
-      <c r="I18" s="401"/>
-      <c r="J18" s="401"/>
-      <c r="K18" s="401"/>
-      <c r="L18" s="401"/>
-      <c r="M18" s="401"/>
-      <c r="N18" s="401"/>
-      <c r="O18" s="401"/>
-      <c r="P18" s="438"/>
+      <c r="B18" s="404"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="405"/>
+      <c r="E18" s="405"/>
+      <c r="F18" s="405"/>
+      <c r="G18" s="405"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="405"/>
+      <c r="J18" s="405"/>
+      <c r="K18" s="405"/>
+      <c r="L18" s="405"/>
+      <c r="M18" s="405"/>
+      <c r="N18" s="405"/>
+      <c r="O18" s="405"/>
+      <c r="P18" s="406"/>
       <c r="S18" s="49"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="439" t="s">
+      <c r="B19" s="407" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="440"/>
-      <c r="D19" s="440"/>
-      <c r="E19" s="440"/>
-      <c r="F19" s="440"/>
-      <c r="G19" s="440"/>
-      <c r="H19" s="440"/>
-      <c r="I19" s="440"/>
-      <c r="J19" s="440"/>
-      <c r="K19" s="440"/>
-      <c r="L19" s="440"/>
-      <c r="M19" s="440"/>
-      <c r="N19" s="440"/>
-      <c r="O19" s="440"/>
-      <c r="P19" s="441"/>
+      <c r="C19" s="408"/>
+      <c r="D19" s="408"/>
+      <c r="E19" s="408"/>
+      <c r="F19" s="408"/>
+      <c r="G19" s="408"/>
+      <c r="H19" s="408"/>
+      <c r="I19" s="408"/>
+      <c r="J19" s="408"/>
+      <c r="K19" s="408"/>
+      <c r="L19" s="408"/>
+      <c r="M19" s="408"/>
+      <c r="N19" s="408"/>
+      <c r="O19" s="408"/>
+      <c r="P19" s="409"/>
       <c r="S19" s="49"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="439"/>
-      <c r="C20" s="440"/>
-      <c r="D20" s="440"/>
-      <c r="E20" s="440"/>
-      <c r="F20" s="440"/>
-      <c r="G20" s="440"/>
-      <c r="H20" s="440"/>
-      <c r="I20" s="440"/>
-      <c r="J20" s="440"/>
-      <c r="K20" s="440"/>
-      <c r="L20" s="440"/>
-      <c r="M20" s="440"/>
-      <c r="N20" s="440"/>
-      <c r="O20" s="440"/>
-      <c r="P20" s="441"/>
+      <c r="B20" s="407"/>
+      <c r="C20" s="408"/>
+      <c r="D20" s="408"/>
+      <c r="E20" s="408"/>
+      <c r="F20" s="408"/>
+      <c r="G20" s="408"/>
+      <c r="H20" s="408"/>
+      <c r="I20" s="408"/>
+      <c r="J20" s="408"/>
+      <c r="K20" s="408"/>
+      <c r="L20" s="408"/>
+      <c r="M20" s="408"/>
+      <c r="N20" s="408"/>
+      <c r="O20" s="408"/>
+      <c r="P20" s="409"/>
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="2:19" ht="47.25" customHeight="1">
-      <c r="B21" s="436" t="s">
+      <c r="B21" s="402" t="s">
         <v>3827</v>
       </c>
-      <c r="C21" s="437"/>
-      <c r="D21" s="437"/>
+      <c r="C21" s="403"/>
+      <c r="D21" s="403"/>
       <c r="E21" s="44"/>
-      <c r="F21" s="448"/>
-      <c r="G21" s="449"/>
-      <c r="H21" s="450"/>
-      <c r="I21" s="437" t="s">
+      <c r="F21" s="416"/>
+      <c r="G21" s="417"/>
+      <c r="H21" s="418"/>
+      <c r="I21" s="403" t="s">
         <v>3828</v>
       </c>
-      <c r="J21" s="437"/>
-      <c r="K21" s="437"/>
-      <c r="L21" s="437"/>
-      <c r="M21" s="437"/>
-      <c r="N21" s="445"/>
-      <c r="O21" s="446"/>
-      <c r="P21" s="447"/>
+      <c r="J21" s="403"/>
+      <c r="K21" s="403"/>
+      <c r="L21" s="403"/>
+      <c r="M21" s="403"/>
+      <c r="N21" s="413"/>
+      <c r="O21" s="414"/>
+      <c r="P21" s="415"/>
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="2:19" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B22" s="434" t="s">
+      <c r="B22" s="400" t="s">
         <v>3802</v>
       </c>
-      <c r="C22" s="435"/>
-      <c r="D22" s="435"/>
+      <c r="C22" s="401"/>
+      <c r="D22" s="401"/>
       <c r="E22" s="79"/>
-      <c r="F22" s="451"/>
-      <c r="G22" s="452"/>
-      <c r="H22" s="453"/>
-      <c r="I22" s="435" t="s">
+      <c r="F22" s="419"/>
+      <c r="G22" s="420"/>
+      <c r="H22" s="421"/>
+      <c r="I22" s="401" t="s">
         <v>3801</v>
       </c>
-      <c r="J22" s="435"/>
-      <c r="K22" s="435"/>
-      <c r="L22" s="435"/>
-      <c r="M22" s="435"/>
-      <c r="N22" s="442"/>
-      <c r="O22" s="443"/>
-      <c r="P22" s="444"/>
+      <c r="J22" s="401"/>
+      <c r="K22" s="401"/>
+      <c r="L22" s="401"/>
+      <c r="M22" s="401"/>
+      <c r="N22" s="410"/>
+      <c r="O22" s="411"/>
+      <c r="P22" s="412"/>
       <c r="S22" s="49"/>
     </row>
     <row r="23" spans="2:19">
@@ -57741,6 +57741,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:N3"/>
+    <mergeCell ref="D4:N5"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
@@ -57753,17 +57764,6 @@
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="D2:N3"/>
-    <mergeCell ref="D4:N5"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <dataValidations xWindow="635" yWindow="468" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C14" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -57790,8 +57790,8 @@
   </sheetPr>
   <dimension ref="B1:Q110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -60020,13 +60020,27 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="A1:AY1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="J2:DB2"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DA3:DK3"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BM8:BN8"/>
     <mergeCell ref="CW8:CX8"/>
     <mergeCell ref="DU7:DV7"/>
     <mergeCell ref="C27:D27"/>
@@ -60043,27 +60057,13 @@
     <mergeCell ref="CE8:CF8"/>
     <mergeCell ref="CK8:CL8"/>
     <mergeCell ref="CQ8:CR8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BM8:BN8"/>
-    <mergeCell ref="A1:AY1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="J2:DB2"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DA3:DK3"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
@@ -61527,37 +61527,224 @@
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="O79:R79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="O80:R80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="O81:R81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="O76:R76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="O78:R78"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="N15:R17"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="E31:R31"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:R57"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="O68:R68"/>
     <mergeCell ref="F69:I69"/>
     <mergeCell ref="J69:K69"/>
     <mergeCell ref="L69:N69"/>
@@ -61582,224 +61769,37 @@
     <mergeCell ref="L75:N75"/>
     <mergeCell ref="O75:R75"/>
     <mergeCell ref="F76:I76"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="O68:R68"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="O61:R61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="O57:R57"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="E31:R31"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="N15:R17"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="O76:R76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="O80:R80"/>
   </mergeCells>
   <conditionalFormatting sqref="J34:K43">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Si">
@@ -61857,12 +61857,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62051,15 +62048,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F3E6905-CAF0-4525-8529-97B84DBBF1CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6836CEE8-389A-4918-963E-8B651F0D2FC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9776595c-c7a1-4d59-945d-117fbd2f60c6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="961c7bc3-f61f-454d-af48-d0758d1c7b83"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -62084,18 +62093,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6836CEE8-389A-4918-963E-8B651F0D2FC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F3E6905-CAF0-4525-8529-97B84DBBF1CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9776595c-c7a1-4d59-945d-117fbd2f60c6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="961c7bc3-f61f-454d-af48-d0758d1c7b83"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>